--- a/patch/SLPS/scripts/googleSheet_Extracted2.xlsx
+++ b/patch/SLPS/scripts/googleSheet_Extracted2.xlsx
@@ -1350,5955 +1350,5955 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Cyril's to the North[END]</t>
+          <t>Darilsheid Harbor is in the East side of town[END]</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>22668</v>
+        <v>22044</v>
       </c>
       <c r="C71" t="n">
-        <v>267</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Darilsheid Harbor is in the East side of town[END]</t>
+          <t>Darilsheid is East of Harmentz[END]</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>22044</v>
+        <v>24204</v>
       </c>
       <c r="C72" t="n">
-        <v>111</v>
+        <v>651</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Darilsheid is East of Harmentz[END]</t>
+          <t>Darilsheid is South East of Junkland[END]</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>24204</v>
+        <v>23396</v>
       </c>
       <c r="C73" t="n">
-        <v>651</v>
+        <v>449</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Darilsheid is South East of Junkland[END]</t>
+          <t>Darilsheid is South of the Temple[END]</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>23396</v>
+        <v>22036</v>
       </c>
       <c r="C74" t="n">
-        <v>449</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Darilsheid is South of the Temple[END]</t>
+          <t>Darilsheid is to the West of Cresta[END]</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>22036</v>
+        <v>22856</v>
       </c>
       <c r="C75" t="n">
-        <v>109</v>
+        <v>314</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Darilsheid is to the West of Cresta[END]</t>
+          <t>Deeper into the Temple[END]</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>22856</v>
+        <v>21816</v>
       </c>
       <c r="C76" t="n">
-        <v>314</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Deeper into the Temple[END]</t>
+          <t>Defeat the Armored Convoy![END]</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>21816</v>
+        <v>22276</v>
       </c>
       <c r="C77" t="n">
-        <v>54</v>
+        <v>169</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Defeat the Armored Convoy![END]</t>
+          <t>Defend Darilsheid from the Monsters[END]</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>22276</v>
+        <v>23276</v>
       </c>
       <c r="C78" t="n">
-        <v>169</v>
+        <v>419</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Defend Darilsheid from the Monsters[END]</t>
+          <t>Deimos to Ignasea[END]</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>23276</v>
+        <v>23092</v>
       </c>
       <c r="C79" t="n">
-        <v>419</v>
+        <v>373</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Deimos to Ignasea[END]</t>
+          <t>Delivering the Lens to [Reynolds][END]</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>23092</v>
+        <v>23448</v>
       </c>
       <c r="C80" t="n">
-        <v>373</v>
+        <v>462</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Delivering the Lens to [Reynolds][END]</t>
+          <t>Despite Appearances...[END]</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>23448</v>
+        <v>21720</v>
       </c>
       <c r="C81" t="n">
-        <v>462</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Despite Appearances...[END]</t>
+          <t>Destroy the Barrier Stones![END]</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>21720</v>
+        <v>22016</v>
       </c>
       <c r="C82" t="n">
-        <v>30</v>
+        <v>104</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>Destroy the Barrier Stones![END]</t>
+          <t>Developing a Friendship[END]</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>22016</v>
+        <v>22108</v>
       </c>
       <c r="C83" t="n">
-        <v>104</v>
+        <v>127</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>Developing a Friendship[END]</t>
+          <t>Discussing Darilsheid[END]</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>22108</v>
+        <v>23456</v>
       </c>
       <c r="C84" t="n">
-        <v>127</v>
+        <v>464</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Discussing Darilsheid[END]</t>
+          <t>Discussing National Isolationism[END]</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>23456</v>
+        <v>22340</v>
       </c>
       <c r="C85" t="n">
-        <v>464</v>
+        <v>185</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Discussing National Isolationism[END]</t>
+          <t>Do Swordians Sleep?[END]</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>22340</v>
+        <v>21660</v>
       </c>
       <c r="C86" t="n">
-        <v>185</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Do Swordians Sleep?[END]</t>
+          <t>Does not Knowing Win?[END]</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>21660</v>
+        <v>21876</v>
       </c>
       <c r="C87" t="n">
-        <v>15</v>
+        <v>69</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Does not Knowing Win?[END]</t>
+          <t>Doesn't Your Hair Bother You?[END]</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>21876</v>
+        <v>22984</v>
       </c>
       <c r="C88" t="n">
-        <v>69</v>
+        <v>346</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Doesn't Your Hair Bother You?[END]</t>
+          <t>Don't Be Overly Optimistic[END]</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>22984</v>
+        <v>22596</v>
       </c>
       <c r="C89" t="n">
-        <v>346</v>
+        <v>249</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>Don't Be Overly Optimistic[END]</t>
+          <t>Don't Dawdle[END]</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>22596</v>
+        <v>23756</v>
       </c>
       <c r="C90" t="n">
-        <v>249</v>
+        <v>539</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>Don't Dawdle[END]</t>
+          <t>Don't Forget to Search Straylize Temple[END]</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>23756</v>
+        <v>22188</v>
       </c>
       <c r="C91" t="n">
-        <v>539</v>
+        <v>147</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>Don't Forget to Search Straylize Temple[END]</t>
+          <t>Don't Forget to Search the Temple[END]</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>22188</v>
+        <v>22192</v>
       </c>
       <c r="C92" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Don't Forget to Search the Temple[END]</t>
+          <t>Don't Get Confused![END]</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>22192</v>
+        <v>23632</v>
       </c>
       <c r="C93" t="n">
-        <v>148</v>
+        <v>508</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>Don't Get Confused![END]</t>
+          <t>Don't Wander Too Far Off[END]</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>23632</v>
+        <v>22240</v>
       </c>
       <c r="C94" t="n">
-        <v>508</v>
+        <v>160</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>Don't Wander Too Far Off[END]</t>
+          <t>Easily Distracted[END]</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>22240</v>
+        <v>21764</v>
       </c>
       <c r="C95" t="n">
-        <v>160</v>
+        <v>41</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>Easily Distracted[END]</t>
+          <t>East from Here[END]</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>21764</v>
+        <v>23816</v>
       </c>
       <c r="C96" t="n">
-        <v>41</v>
+        <v>554</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>East from Here[END]</t>
+          <t>Embraced by Sunny Weather[END]</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>23816</v>
+        <v>21812</v>
       </c>
       <c r="C97" t="n">
-        <v>554</v>
+        <v>53</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>Embraced by Sunny Weather[END]</t>
+          <t>Emergency Passage is Located to the East[END]</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>21812</v>
+        <v>22680</v>
       </c>
       <c r="C98" t="n">
-        <v>53</v>
+        <v>270</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>Emergency Passage is Located to the East[END]</t>
+          <t>Emergency Passage to Heidelberg Castle[END]</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>22680</v>
+        <v>22684</v>
       </c>
       <c r="C99" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>Emergency Passage to Heidelberg Castle[END]</t>
+          <t>Enemy Headquarters[END]</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>22684</v>
+        <v>23552</v>
       </c>
       <c r="C100" t="n">
-        <v>271</v>
+        <v>488</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>Enemy Headquarters[END]</t>
+          <t>Enter Helraios through the Outer Shell[END]</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>23552</v>
+        <v>23148</v>
       </c>
       <c r="C101" t="n">
-        <v>488</v>
+        <v>387</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>Enter Helraios through the Outer Shell[END]</t>
+          <t>Enter Ignasea through the Outer Shell[END]</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>23148</v>
+        <v>23012</v>
       </c>
       <c r="C102" t="n">
-        <v>387</v>
+        <v>353</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>Enter Ignasea through the Outer Shell[END]</t>
+          <t>Enter the Basement[END]</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>23012</v>
+        <v>22184</v>
       </c>
       <c r="C103" t="n">
-        <v>353</v>
+        <v>146</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>Enter the Basement[END]</t>
+          <t>Entering Seinegald through the North Gate[END]</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>22184</v>
+        <v>21844</v>
       </c>
       <c r="C104" t="n">
-        <v>146</v>
+        <v>61</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>Entering Seinegald through the North Gate[END]</t>
+          <t>Enthralling Brilliance[END]</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>21844</v>
+        <v>23612</v>
       </c>
       <c r="C105" t="n">
-        <v>61</v>
+        <v>503</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>Enthralling Brilliance[END]</t>
+          <t>Enthusiastic [Chelsea][END]</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>23612</v>
+        <v>23376</v>
       </c>
       <c r="C106" t="n">
-        <v>503</v>
+        <v>444</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>Enthusiastic [Chelsea][END]</t>
+          <t>Even Though They're Rebels[END]</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>23376</v>
+        <v>22676</v>
       </c>
       <c r="C107" t="n">
-        <v>444</v>
+        <v>269</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>Even Though They're Rebels[END]</t>
+          <t>Everyone Together[END]</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>22676</v>
+        <v>22076</v>
       </c>
       <c r="C108" t="n">
-        <v>269</v>
+        <v>119</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>Everyone Together[END]</t>
+          <t>Exit the Castle and Go to the Port[END]</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>22076</v>
+        <v>22504</v>
       </c>
       <c r="C109" t="n">
-        <v>119</v>
+        <v>226</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>Exit the Castle and Go to the Port[END]</t>
+          <t>Expedition [Stahn][END]</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>22504</v>
+        <v>23916</v>
       </c>
       <c r="C110" t="n">
-        <v>226</v>
+        <v>579</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>Expedition [Stahn][END]</t>
+          <t>Family Formalities[END]</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>23916</v>
+        <v>21936</v>
       </c>
       <c r="C111" t="n">
-        <v>579</v>
+        <v>84</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>Family Formalities[END]</t>
+          <t>Family..[END]</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>21936</v>
+        <v>24108</v>
       </c>
       <c r="C112" t="n">
-        <v>84</v>
+        <v>627</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>Family..[END]</t>
+          <t>Farewell!?[END]</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>24108</v>
+        <v>24156</v>
       </c>
       <c r="C113" t="n">
-        <v>627</v>
+        <v>639</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>Farewell!?[END]</t>
+          <t>Feeling Better?[END]</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>24156</v>
+        <v>22136</v>
       </c>
       <c r="C114" t="n">
-        <v>639</v>
+        <v>134</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>Feeling Better?[END]</t>
+          <t>Female Friendship?[END]</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>22136</v>
+        <v>23604</v>
       </c>
       <c r="C115" t="n">
-        <v>134</v>
+        <v>501</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>Female Friendship?[END]</t>
+          <t>Find the Beach North of Cresta[END]</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>23604</v>
+        <v>24376</v>
       </c>
       <c r="C116" t="n">
-        <v>501</v>
+        <v>694</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>Find the Beach North of Cresta[END]</t>
+          <t>Find the Security Unit[END]</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>24376</v>
+        <v>23056</v>
       </c>
       <c r="C117" t="n">
-        <v>694</v>
+        <v>364</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>Find the Security Unit[END]</t>
+          <t>Finding Berselium[END]</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>23056</v>
+        <v>23384</v>
       </c>
       <c r="C118" t="n">
-        <v>364</v>
+        <v>446</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>Finding Berselium[END]</t>
+          <t>Finding an Aeth'er Cruiser[END]</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>23384</v>
+        <v>23216</v>
       </c>
       <c r="C119" t="n">
-        <v>446</v>
+        <v>404</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>Finding an Aeth'er Cruiser[END]</t>
+          <t>First time at Seinegald Castle[END]</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>23216</v>
+        <v>21904</v>
       </c>
       <c r="C120" t="n">
-        <v>404</v>
+        <v>76</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>First time at Seinegald Castle[END]</t>
+          <t>Follow [Ilene] to the Arena[END]</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>21904</v>
+        <v>22272</v>
       </c>
       <c r="C121" t="n">
-        <v>76</v>
+        <v>168</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>Follow [Ilene] to the Arena[END]</t>
+          <t>Following [Greybum] to Phandaria[END]</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>22272</v>
+        <v>22568</v>
       </c>
       <c r="C122" t="n">
-        <v>168</v>
+        <v>242</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>Following [Greybum] to Phandaria[END]</t>
+          <t>For the Living[END]</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>22568</v>
+        <v>23240</v>
       </c>
       <c r="C123" t="n">
-        <v>242</v>
+        <v>410</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>For the Living[END]</t>
+          <t>Fortune - 1[END]</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>23240</v>
+        <v>23920</v>
       </c>
       <c r="C124" t="n">
-        <v>410</v>
+        <v>580</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>Fortune - 1[END]</t>
+          <t>Fortune - 2[END]</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>23920</v>
+        <v>23924</v>
       </c>
       <c r="C125" t="n">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>Fortune - 2[END]</t>
+          <t>Fortune - 3[END]</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>23924</v>
+        <v>23928</v>
       </c>
       <c r="C126" t="n">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>Fortune - 3[END]</t>
+          <t>Fortune - 4[END]</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>23928</v>
+        <v>23932</v>
       </c>
       <c r="C127" t="n">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>Fortune - 4[END]</t>
+          <t>Fortune - 5[END]</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>23932</v>
+        <v>23936</v>
       </c>
       <c r="C128" t="n">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>Fortune - 5[END]</t>
+          <t>Fortune - 6[END]</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>23936</v>
+        <v>23940</v>
       </c>
       <c r="C129" t="n">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>Fortune - 6[END]</t>
+          <t>Fortune - 7[END]</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>23940</v>
+        <v>23944</v>
       </c>
       <c r="C130" t="n">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>Fortune - 7[END]</t>
+          <t>From Armedia to the Temple[END]</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>23944</v>
+        <v>21960</v>
       </c>
       <c r="C131" t="n">
-        <v>586</v>
+        <v>90</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>From Armedia to the Temple[END]</t>
+          <t>From Josaia to Mikheil[END]</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>21960</v>
+        <v>23188</v>
       </c>
       <c r="C132" t="n">
-        <v>90</v>
+        <v>397</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>From Josaia to Mikheil[END]</t>
+          <t>From the Harbor to the Armada[END]</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>23188</v>
+        <v>24308</v>
       </c>
       <c r="C133" t="n">
-        <v>397</v>
+        <v>677</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>From the Harbor to the Armada[END]</t>
+          <t>From the Port to Phandaria[END]</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>24308</v>
+        <v>22572</v>
       </c>
       <c r="C134" t="n">
-        <v>677</v>
+        <v>243</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>From the Port to Phandaria[END]</t>
+          <t>From the Port to Terazzi[END]</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>22572</v>
+        <v>22512</v>
       </c>
       <c r="C135" t="n">
-        <v>243</v>
+        <v>228</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>From the Port to Terazzi[END]</t>
+          <t>Fully Motivated[END]</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>22512</v>
+        <v>21804</v>
       </c>
       <c r="C136" t="n">
-        <v>228</v>
+        <v>51</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>Fully Motivated[END]</t>
+          <t>Further Within the Hidden Passage[END]</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>21804</v>
+        <v>24236</v>
       </c>
       <c r="C137" t="n">
-        <v>51</v>
+        <v>659</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>Further Within the Hidden Passage[END]</t>
+          <t>Gathering Information in Moreau[END]</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>24236</v>
+        <v>22432</v>
       </c>
       <c r="C138" t="n">
-        <v>659</v>
+        <v>208</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>Gathering Information in Moreau[END]</t>
+          <t>Get Back Here, Now[END]</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>22432</v>
+        <v>23740</v>
       </c>
       <c r="C139" t="n">
-        <v>208</v>
+        <v>535</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>Get Back Here, Now[END]</t>
+          <t>Get the Energy Unit Back[END]</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>23740</v>
+        <v>23060</v>
       </c>
       <c r="C140" t="n">
-        <v>535</v>
+        <v>365</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>Get the Energy Unit Back[END]</t>
+          <t>Get the R Key[END]</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>23060</v>
+        <v>22956</v>
       </c>
       <c r="C141" t="n">
-        <v>365</v>
+        <v>339</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>Get the R Key[END]</t>
+          <t>Getting to the Lens Cannon[END]</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>22956</v>
+        <v>23476</v>
       </c>
       <c r="C142" t="n">
-        <v>339</v>
+        <v>469</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>Getting to the Lens Cannon[END]</t>
+          <t>Ghost Story?[END]</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>23476</v>
+        <v>22944</v>
       </c>
       <c r="C143" t="n">
-        <v>469</v>
+        <v>336</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>Ghost Story?[END]</t>
+          <t>Ghost Town?[END]</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>22944</v>
+        <v>22520</v>
       </c>
       <c r="C144" t="n">
-        <v>336</v>
+        <v>230</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>Ghost Town?[END]</t>
+          <t>Ghosts of the Past[END]</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>22520</v>
+        <v>23608</v>
       </c>
       <c r="C145" t="n">
-        <v>230</v>
+        <v>502</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>Ghosts of the Past[END]</t>
+          <t>Go through the Woods to Reach the Temple[END]</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>23608</v>
+        <v>21736</v>
       </c>
       <c r="C146" t="n">
-        <v>502</v>
+        <v>34</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>Go through the Woods to Reach the Temple[END]</t>
+          <t>Go to Cresta, East of Darilsheid[END]</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>21736</v>
+        <v>24360</v>
       </c>
       <c r="C147" t="n">
-        <v>34</v>
+        <v>690</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>Go to Cresta, East of Darilsheid[END]</t>
+          <t>Go to the Entrance to Get Back on the Boat[END]</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>24360</v>
+        <v>22088</v>
       </c>
       <c r="C148" t="n">
-        <v>690</v>
+        <v>122</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>Go to the Entrance to Get Back on the Boat[END]</t>
+          <t>Go to the Temple's Back Door![END]</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>22088</v>
+        <v>24288</v>
       </c>
       <c r="C149" t="n">
-        <v>122</v>
+        <v>672</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>Go to the Temple's Back Door![END]</t>
+          <t>Goal: Innermost Depths[END]</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>24288</v>
+        <v>23340</v>
       </c>
       <c r="C150" t="n">
-        <v>672</v>
+        <v>435</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>Goal: Innermost Depths[END]</t>
+          <t>Going to Ignasea[END]</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>23340</v>
+        <v>23008</v>
       </c>
       <c r="C151" t="n">
-        <v>435</v>
+        <v>352</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>Going to Ignasea[END]</t>
+          <t>Growing Seeds is Fun[END]</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>23008</v>
+        <v>23704</v>
       </c>
       <c r="C152" t="n">
-        <v>352</v>
+        <v>526</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>Growing Seeds is Fun[END]</t>
+          <t>Hamburger[END]</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>23704</v>
+        <v>24180</v>
       </c>
       <c r="C153" t="n">
-        <v>526</v>
+        <v>645</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>Hamburger[END]</t>
+          <t>Hang in There, [Chelsea][END]</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>24180</v>
+        <v>23332</v>
       </c>
       <c r="C154" t="n">
-        <v>645</v>
+        <v>433</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>Hang in There, [Chelsea][END]</t>
+          <t>Harmentz is North West of Janos[END]</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>23332</v>
+        <v>21852</v>
       </c>
       <c r="C155" t="n">
-        <v>433</v>
+        <v>63</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>Harmentz is North West of Janos[END]</t>
+          <t>Harmentz is North of Janos[END]</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>21852</v>
+        <v>21848</v>
       </c>
       <c r="C156" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>Harmentz is North of Janos[END]</t>
+          <t>Harmentz is West of Darilsheid[END]</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>21848</v>
+        <v>24188</v>
       </c>
       <c r="C157" t="n">
-        <v>62</v>
+        <v>647</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>Harmentz is West of Darilsheid[END]</t>
+          <t>Harmentz is West of the Capital[END]</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>24188</v>
+        <v>24340</v>
       </c>
       <c r="C158" t="n">
-        <v>647</v>
+        <v>685</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>Harmentz is West of the Capital[END]</t>
+          <t>Harsh Reality[END]</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>24340</v>
+        <v>23572</v>
       </c>
       <c r="C159" t="n">
-        <v>685</v>
+        <v>493</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>Harsh Reality[END]</t>
+          <t>Has [Mary] Changed?[END]</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>23572</v>
+        <v>22804</v>
       </c>
       <c r="C160" t="n">
-        <v>493</v>
+        <v>301</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>Has [Mary] Changed?[END]</t>
+          <t>Have Some Tact[END]</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>22804</v>
+        <v>22372</v>
       </c>
       <c r="C161" t="n">
-        <v>301</v>
+        <v>193</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>Have Some Tact[END]</t>
+          <t>He's Me, I'm Him, so he's...[END]</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>22372</v>
+        <v>23960</v>
       </c>
       <c r="C162" t="n">
-        <v>193</v>
+        <v>590</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>He's Me, I'm Him, so he's...[END]</t>
+          <t>Head Towards the Harbor[END]</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>23960</v>
+        <v>22280</v>
       </c>
       <c r="C163" t="n">
-        <v>590</v>
+        <v>170</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>Head Towards the Harbor[END]</t>
+          <t>Head for the Cathedral[END]</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>22280</v>
+        <v>22024</v>
       </c>
       <c r="C164" t="n">
-        <v>170</v>
+        <v>106</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>Head for the Cathedral[END]</t>
+          <t>Head to Ignasea[END]</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>22024</v>
+        <v>23004</v>
       </c>
       <c r="C165" t="n">
-        <v>106</v>
+        <v>351</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>Head to Ignasea[END]</t>
+          <t>Head to the East Gate[END]</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>23004</v>
+        <v>21748</v>
       </c>
       <c r="C166" t="n">
-        <v>351</v>
+        <v>37</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>Head to the East Gate[END]</t>
+          <t>Heidelberg is North of Cyril[END]</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>21748</v>
+        <v>22664</v>
       </c>
       <c r="C167" t="n">
-        <v>37</v>
+        <v>266</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>Heidelberg is North of Cyril[END]</t>
+          <t>Heidelberg is North through the Forest[END]</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>22664</v>
+        <v>22816</v>
       </c>
       <c r="C168" t="n">
-        <v>266</v>
+        <v>304</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>Heidelberg is North through the Forest[END]</t>
+          <t>Hidden Passage to the Temple[END]</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>22816</v>
+        <v>21772</v>
       </c>
       <c r="C169" t="n">
-        <v>304</v>
+        <v>43</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>Hidden Passage to the Temple[END]</t>
+          <t>Hot![END]</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>21772</v>
+        <v>22092</v>
       </c>
       <c r="C170" t="n">
-        <v>43</v>
+        <v>123</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>Hot![END]</t>
+          <t>How Did You Meet?[END]</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>22092</v>
+        <v>21776</v>
       </c>
       <c r="C171" t="n">
-        <v>123</v>
+        <v>44</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>How Did You Meet?[END]</t>
+          <t>How do I get a Pass?[END]</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>21776</v>
+        <v>21756</v>
       </c>
       <c r="C172" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>How do I get a Pass?[END]</t>
+          <t>Hurry to Cloudius[END]</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>21756</v>
+        <v>23076</v>
       </c>
       <c r="C173" t="n">
-        <v>39</v>
+        <v>369</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>Hurry to Cloudius[END]</t>
+          <t>Hurry to Cresta[END]</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>23076</v>
+        <v>23252</v>
       </c>
       <c r="C174" t="n">
-        <v>369</v>
+        <v>413</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>Hurry to Cresta[END]</t>
+          <t>Hurry to [Ritora][END]</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>23252</v>
+        <v>23180</v>
       </c>
       <c r="C175" t="n">
-        <v>413</v>
+        <v>395</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>Hurry to [Ritora][END]</t>
+          <t>Hurry to the Audience Chamber[END]</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>23180</v>
+        <v>23300</v>
       </c>
       <c r="C176" t="n">
-        <v>395</v>
+        <v>425</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>Hurry to the Audience Chamber[END]</t>
+          <t>Hurry to the Cathedral[END]</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>23300</v>
+        <v>22028</v>
       </c>
       <c r="C177" t="n">
-        <v>425</v>
+        <v>107</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>Hurry to the Cathedral[END]</t>
+          <t>Hurry to the Central Area[END]</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>22028</v>
+        <v>22996</v>
       </c>
       <c r="C178" t="n">
-        <v>107</v>
+        <v>349</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>Hurry to the Central Area[END]</t>
+          <t>Hurry to the Harbor[END]</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>22996</v>
+        <v>24248</v>
       </c>
       <c r="C179" t="n">
-        <v>349</v>
+        <v>662</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>Hurry to the Harbor[END]</t>
+          <t>Hurry to the Main System[END]</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>24248</v>
+        <v>23068</v>
       </c>
       <c r="C180" t="n">
-        <v>662</v>
+        <v>367</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>Hurry to the Main System[END]</t>
+          <t>Hurry![END]</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>23068</v>
+        <v>23524</v>
       </c>
       <c r="C181" t="n">
-        <v>367</v>
+        <v>481</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>Hurry![END]</t>
+          <t>Hurry[END]</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>23524</v>
+        <v>23748</v>
       </c>
       <c r="C182" t="n">
-        <v>481</v>
+        <v>537</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>Hurry[END]</t>
+          <t>I Don't Want to Do This[END]</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>23748</v>
+        <v>23620</v>
       </c>
       <c r="C183" t="n">
-        <v>537</v>
+        <v>505</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>I Don't Want to Do This[END]</t>
+          <t>I Have Other Things to Do Right Now[END]</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>23620</v>
+        <v>23788</v>
       </c>
       <c r="C184" t="n">
-        <v>505</v>
+        <v>547</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>I Have Other Things to Do Right Now[END]</t>
+          <t>I Have Other Things to Do[END]</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>23788</v>
+        <v>23764</v>
       </c>
       <c r="C185" t="n">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>I Have Other Things to Do[END]</t>
+          <t>I Have Somewhere Else to Be[END]</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>23764</v>
+        <v>24444</v>
       </c>
       <c r="C186" t="n">
-        <v>541</v>
+        <v>711</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>I Have Somewhere Else to Be[END]</t>
+          <t>I Have to Buy Something for Dinner[END]</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>24444</v>
+        <v>22756</v>
       </c>
       <c r="C187" t="n">
-        <v>711</v>
+        <v>289</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>I Have to Buy Something for Dinner[END]</t>
+          <t>I Know How You're Feeling[END]</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>22756</v>
+        <v>23660</v>
       </c>
       <c r="C188" t="n">
-        <v>289</v>
+        <v>515</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>I Know How You're Feeling[END]</t>
+          <t>I Love Sleeping[END]</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>23660</v>
+        <v>23680</v>
       </c>
       <c r="C189" t="n">
-        <v>515</v>
+        <v>520</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>I Love Sleeping[END]</t>
+          <t>I Should Say Goodbye..[END]</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>23680</v>
+        <v>24260</v>
       </c>
       <c r="C190" t="n">
-        <v>520</v>
+        <v>665</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>I Should Say Goodbye..[END]</t>
+          <t>I Want a Tiara[END]</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>24260</v>
+        <v>22304</v>
       </c>
       <c r="C191" t="n">
-        <v>665</v>
+        <v>176</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>I Want a Tiara[END]</t>
+          <t>I'm Enjoying This[END]</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>22304</v>
+        <v>23700</v>
       </c>
       <c r="C192" t="n">
-        <v>176</v>
+        <v>525</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>I'm Enjoying This[END]</t>
+          <t>I'm Glad we Did This[END]</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>23700</v>
+        <v>22464</v>
       </c>
       <c r="C193" t="n">
-        <v>525</v>
+        <v>216</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>I'm Glad we Did This[END]</t>
+          <t>I'm Not Like Them[END]</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>22464</v>
+        <v>21808</v>
       </c>
       <c r="C194" t="n">
-        <v>216</v>
+        <v>52</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>I'm Not Like Them[END]</t>
+          <t>I'm Stuffed![END]</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>21808</v>
+        <v>23624</v>
       </c>
       <c r="C195" t="n">
-        <v>52</v>
+        <v>506</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>I'm Stuffed![END]</t>
+          <t>I'm a Bit Nervous[END]</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>23624</v>
+        <v>23576</v>
       </c>
       <c r="C196" t="n">
-        <v>506</v>
+        <v>494</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>I'm a Bit Nervous[END]</t>
+          <t>I've Got Your Back[END]</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>23576</v>
+        <v>23688</v>
       </c>
       <c r="C197" t="n">
-        <v>494</v>
+        <v>522</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>I've Got Your Back[END]</t>
+          <t>If You Need a Break, Go to the Inn[END]</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>23688</v>
+        <v>23464</v>
       </c>
       <c r="C198" t="n">
-        <v>522</v>
+        <v>466</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>If You Need a Break, Go to the Inn[END]</t>
+          <t>Igtenos' Pain[END]</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>23464</v>
+        <v>23140</v>
       </c>
       <c r="C199" t="n">
-        <v>466</v>
+        <v>385</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>Igtenos' Pain[END]</t>
+          <t>Impressions of Heidelberg[END]</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>23140</v>
+        <v>22672</v>
       </c>
       <c r="C200" t="n">
-        <v>385</v>
+        <v>268</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>Impressions of Heidelberg[END]</t>
+          <t>In Good Spirits?[END]</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>22672</v>
+        <v>22772</v>
       </c>
       <c r="C201" t="n">
-        <v>268</v>
+        <v>293</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>In Good Spirits?[END]</t>
+          <t>In Search of the Softy Kreem Stand[END]</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>22772</v>
+        <v>24300</v>
       </c>
       <c r="C202" t="n">
-        <v>293</v>
+        <v>675</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>In Search of the Softy Kreem Stand[END]</t>
+          <t>Innocence?[END]</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>24300</v>
+        <v>21640</v>
       </c>
       <c r="C203" t="n">
-        <v>675</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>Innocence?[END]</t>
+          <t>Introductions[END]</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>21640</v>
+        <v>21996</v>
       </c>
       <c r="C204" t="n">
-        <v>10</v>
+        <v>99</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>Introductions[END]</t>
+          <t>Intuition on the Field?[END]</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>21996</v>
+        <v>23692</v>
       </c>
       <c r="C205" t="n">
-        <v>99</v>
+        <v>523</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>Intuition on the Field?[END]</t>
+          <t>Irritated [Lion][END]</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>23692</v>
+        <v>24100</v>
       </c>
       <c r="C206" t="n">
-        <v>523</v>
+        <v>625</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>Irritated [Lion][END]</t>
+          <t>Is There a Connection?[END]</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>24100</v>
+        <v>22580</v>
       </c>
       <c r="C207" t="n">
-        <v>625</v>
+        <v>245</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>Is There a Connection?[END]</t>
+          <t>Is [Ilene] at the Center?[END]</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>22580</v>
+        <v>23160</v>
       </c>
       <c r="C208" t="n">
-        <v>245</v>
+        <v>390</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>Is [Ilene] at the Center?[END]</t>
+          <t>Is [Rutee] Anywhere in the City?[END]</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>23160</v>
+        <v>22848</v>
       </c>
       <c r="C209" t="n">
-        <v>390</v>
+        <v>312</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>Is [Rutee] Anywhere in the City?[END]</t>
+          <t>Is the Ice Melting?[END]</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>22848</v>
+        <v>22140</v>
       </c>
       <c r="C210" t="n">
-        <v>312</v>
+        <v>135</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>Is the Ice Melting?[END]</t>
+          <t>Isn't that the Port?[END]</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>22140</v>
+        <v>22452</v>
       </c>
       <c r="C211" t="n">
-        <v>135</v>
+        <v>213</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>Isn't that the Port?[END]</t>
+          <t>It Happens Tomorrow[END]</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>22452</v>
+        <v>23504</v>
       </c>
       <c r="C212" t="n">
-        <v>213</v>
+        <v>476</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>It Happens Tomorrow[END]</t>
+          <t>It Still Won't Open[END]</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>23504</v>
+        <v>23108</v>
       </c>
       <c r="C213" t="n">
-        <v>476</v>
+        <v>377</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>It Still Won't Open[END]</t>
+          <t>It Won't Open[END]</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>23108</v>
+        <v>22052</v>
       </c>
       <c r="C214" t="n">
-        <v>377</v>
+        <v>113</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>It Won't Open[END]</t>
+          <t>It's Better to Go Now..[END]</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>22052</v>
+        <v>23496</v>
       </c>
       <c r="C215" t="n">
-        <v>113</v>
+        <v>474</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>It's Better to Go Now..[END]</t>
+          <t>It's Dangerous Outside![END]</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>23496</v>
+        <v>24280</v>
       </c>
       <c r="C216" t="n">
-        <v>474</v>
+        <v>670</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>It's Dangerous Outside![END]</t>
+          <t>It's Fine, Right?[END]</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>24280</v>
+        <v>22760</v>
       </c>
       <c r="C217" t="n">
-        <v>670</v>
+        <v>290</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>It's Fine, Right?[END]</t>
+          <t>It's Going to Blow![END]</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>22760</v>
+        <v>23544</v>
       </c>
       <c r="C218" t="n">
-        <v>290</v>
+        <v>486</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>It's Going to Blow![END]</t>
+          <t>It's Just My Nature[END]</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>23544</v>
+        <v>21796</v>
       </c>
       <c r="C219" t="n">
-        <v>486</v>
+        <v>49</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>It's Just My Nature[END]</t>
+          <t>It's Nice to Have a Family[END]</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>21796</v>
+        <v>22720</v>
       </c>
       <c r="C220" t="n">
-        <v>49</v>
+        <v>280</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>It's Nice to Have a Family[END]</t>
+          <t>It's so Dark in Here[END]</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>22720</v>
+        <v>23040</v>
       </c>
       <c r="C221" t="n">
-        <v>280</v>
+        <v>360</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>It's so Dark in Here[END]</t>
+          <t>Janos is Just a Bit Further[END]</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>23040</v>
+        <v>21692</v>
       </c>
       <c r="C222" t="n">
-        <v>360</v>
+        <v>23</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>Janos is Just a Bit Further[END]</t>
+          <t>Janos is Southwest of [Alba]'s Hut[END]</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>21692</v>
+        <v>21684</v>
       </c>
       <c r="C223" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>Janos is Southwest of [Alba]'s Hut[END]</t>
+          <t>Janos is Southwest of the Forest[END]</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>21684</v>
+        <v>21688</v>
       </c>
       <c r="C224" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>Janos is Southwest of the Forest[END]</t>
+          <t>Janos is in the Other Direction[END]</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>21688</v>
+        <v>21856</v>
       </c>
       <c r="C225" t="n">
-        <v>22</v>
+        <v>64</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>Janos is in the Other Direction[END]</t>
+          <t>Janos is the Other Way[END]</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>21856</v>
+        <v>21696</v>
       </c>
       <c r="C226" t="n">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>Janos is the Other Way[END]</t>
+          <t>Junkland is West of Calvalese[END]</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>21696</v>
+        <v>23348</v>
       </c>
       <c r="C227" t="n">
-        <v>24</v>
+        <v>437</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>Junkland is West of Calvalese[END]</t>
+          <t>Just the Way You Are[END]</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>23348</v>
+        <v>23356</v>
       </c>
       <c r="C228" t="n">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>Just the Way You Are[END]</t>
+          <t>Keep Pushing Onward![END]</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>23356</v>
+        <v>23516</v>
       </c>
       <c r="C229" t="n">
-        <v>439</v>
+        <v>479</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>Keep Pushing Onward![END]</t>
+          <t>Kind Master [lion] Isn't![END]</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>23516</v>
+        <v>24136</v>
       </c>
       <c r="C230" t="n">
-        <v>479</v>
+        <v>634</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>Kind Master [lion] Isn't![END]</t>
+          <t>Learning Experience[END]</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>24136</v>
+        <v>23116</v>
       </c>
       <c r="C231" t="n">
-        <v>634</v>
+        <v>379</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>Learning Experience[END]</t>
+          <t>Leaving Deimos for Cloudius[END]</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>23116</v>
+        <v>23052</v>
       </c>
       <c r="C232" t="n">
-        <v>379</v>
+        <v>363</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>Leaving Deimos for Cloudius[END]</t>
+          <t>Legendary Champion[END]</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>23052</v>
+        <v>23600</v>
       </c>
       <c r="C233" t="n">
-        <v>363</v>
+        <v>500</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>Legendary Champion[END]</t>
+          <t>Let's Buy Food for Dinner[END]</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>23600</v>
+        <v>22736</v>
       </c>
       <c r="C234" t="n">
-        <v>500</v>
+        <v>284</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>Let's Buy Food for Dinner[END]</t>
+          <t>Let's Check it Out[END]</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>22736</v>
+        <v>23796</v>
       </c>
       <c r="C235" t="n">
-        <v>284</v>
+        <v>549</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>Let's Check it Out[END]</t>
+          <t>Let's Check on the City[END]</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>23796</v>
+        <v>22604</v>
       </c>
       <c r="C236" t="n">
-        <v>549</v>
+        <v>251</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>Let's Check on the City[END]</t>
+          <t>Let's Check up on [Rutee][END]</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>22604</v>
+        <v>23000</v>
       </c>
       <c r="C237" t="n">
-        <v>251</v>
+        <v>350</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>Let's Check up on [Rutee][END]</t>
+          <t>Let's Debrief the Mission[END]</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>23000</v>
+        <v>24380</v>
       </c>
       <c r="C238" t="n">
-        <v>350</v>
+        <v>695</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>Let's Debrief the Mission[END]</t>
+          <t>Let's Examine the Factory[END]</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>24380</v>
+        <v>22884</v>
       </c>
       <c r="C239" t="n">
-        <v>695</v>
+        <v>321</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>Let's Examine the Factory[END]</t>
+          <t>Let's Exit through the Front[END]</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>22884</v>
+        <v>21824</v>
       </c>
       <c r="C240" t="n">
-        <v>321</v>
+        <v>56</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>Let's Exit through the Front[END]</t>
+          <t>Let's Explore Moreau[END]</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>21824</v>
+        <v>24328</v>
       </c>
       <c r="C241" t="n">
-        <v>56</v>
+        <v>682</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>Let's Explore Moreau[END]</t>
+          <t>Let's Find Some Rope[END]</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>24328</v>
+        <v>24324</v>
       </c>
       <c r="C242" t="n">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>Let's Find Some Rope[END]</t>
+          <t>Let's Find the Orphanage[END]</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>24324</v>
+        <v>24372</v>
       </c>
       <c r="C243" t="n">
-        <v>681</v>
+        <v>693</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>Let's Find the Orphanage[END]</t>
+          <t>Let's Find the Seinegald Soldiers in Cresta[END]</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>24372</v>
+        <v>24368</v>
       </c>
       <c r="C244" t="n">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>Let's Find the Seinegald Soldiers in Cresta[END]</t>
+          <t>Let's Finish Him Off![END]</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>24368</v>
+        <v>23536</v>
       </c>
       <c r="C245" t="n">
-        <v>692</v>
+        <v>484</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>Let's Finish Him Off![END]</t>
+          <t>Let's Get Below Batista[END]</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>23536</v>
+        <v>22496</v>
       </c>
       <c r="C246" t="n">
-        <v>484</v>
+        <v>224</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>Let's Get Below Batista[END]</t>
+          <t>Let's Get on the Leviathan[END]</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>22496</v>
+        <v>23840</v>
       </c>
       <c r="C247" t="n">
-        <v>224</v>
+        <v>560</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>Let's Get on the Leviathan[END]</t>
+          <t>Let's Get out of Here[END]</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>23840</v>
+        <v>23392</v>
       </c>
       <c r="C248" t="n">
-        <v>560</v>
+        <v>448</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>Let's Get out of Here[END]</t>
+          <t>Let's Get to Moreau[END]</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>23392</v>
+        <v>22396</v>
       </c>
       <c r="C249" t="n">
-        <v>448</v>
+        <v>199</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>Let's Get to Moreau[END]</t>
+          <t>Let's Get to the Inn[END]</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>22396</v>
+        <v>23280</v>
       </c>
       <c r="C250" t="n">
-        <v>199</v>
+        <v>420</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
         <is>
-          <t>Let's Get to the Inn[END]</t>
+          <t>Let's Get to the Prison[END]</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>23280</v>
+        <v>22488</v>
       </c>
       <c r="C251" t="n">
-        <v>420</v>
+        <v>222</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>Let's Get to the Prison[END]</t>
+          <t>Let's Go Back to Darilsheid[END]</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>22488</v>
+        <v>22896</v>
       </c>
       <c r="C252" t="n">
-        <v>222</v>
+        <v>324</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>Let's Go Back to Darilsheid[END]</t>
+          <t>Let's Go Back to Oberon's Factory[END]</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>22896</v>
+        <v>22888</v>
       </c>
       <c r="C253" t="n">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
         <is>
-          <t>Let's Go Back to Oberon's Factory[END]</t>
+          <t>Let's Go Back to Radisrol[END]</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>22888</v>
+        <v>22972</v>
       </c>
       <c r="C254" t="n">
-        <v>322</v>
+        <v>343</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>Let's Go Back to Radisrol[END]</t>
+          <t>Let's Go Back[END]</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>22972</v>
+        <v>21676</v>
       </c>
       <c r="C255" t="n">
-        <v>343</v>
+        <v>19</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
         <is>
-          <t>Let's Go Back[END]</t>
+          <t>Let's Go Home[END]</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>21676</v>
+        <v>22740</v>
       </c>
       <c r="C256" t="n">
-        <v>19</v>
+        <v>285</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
         <is>
-          <t>Let's Go Home[END]</t>
+          <t>Let's Go Inside[END]</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>22740</v>
+        <v>21680</v>
       </c>
       <c r="C257" t="n">
-        <v>285</v>
+        <v>20</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
         <is>
-          <t>Let's Go Inside[END]</t>
+          <t>Let's Go Look Inside the Temple[END]</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>21680</v>
+        <v>22012</v>
       </c>
       <c r="C258" t="n">
-        <v>20</v>
+        <v>103</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
         <is>
-          <t>Let's Go Look Inside the Temple[END]</t>
+          <t>Let's Go See [Woodrow][END]</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>22012</v>
+        <v>22812</v>
       </c>
       <c r="C259" t="n">
-        <v>103</v>
+        <v>303</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
         <is>
-          <t>Let's Go See [Woodrow][END]</t>
+          <t>Let's Go after Him[END]</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>22812</v>
+        <v>23728</v>
       </c>
       <c r="C260" t="n">
-        <v>303</v>
+        <v>532</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
         <is>
-          <t>Let's Go after Him[END]</t>
+          <t>Let's Go to Radisrol Immediately[END]</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>23728</v>
+        <v>22928</v>
       </c>
       <c r="C261" t="n">
-        <v>532</v>
+        <v>332</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
         <is>
-          <t>Let's Go to Radisrol Immediately[END]</t>
+          <t>Let's Go to Seinegald[END]</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>22928</v>
+        <v>22836</v>
       </c>
       <c r="C262" t="n">
-        <v>332</v>
+        <v>309</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
         <is>
-          <t>Let's Go to Seinegald[END]</t>
+          <t>Let's Go to Terrazi Castle Now[END]</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>22836</v>
+        <v>22540</v>
       </c>
       <c r="C263" t="n">
-        <v>309</v>
+        <v>235</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
         <is>
-          <t>Let's Go to Terrazi Castle Now[END]</t>
+          <t>Let's Go to Trash Mountain[END]</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>22540</v>
+        <v>23380</v>
       </c>
       <c r="C264" t="n">
-        <v>235</v>
+        <v>445</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
         <is>
-          <t>Let's Go to Trash Mountain[END]</t>
+          <t>Let's Go to the Cathedral[END]</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>23380</v>
+        <v>22176</v>
       </c>
       <c r="C265" t="n">
-        <v>445</v>
+        <v>144</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
         <is>
-          <t>Let's Go to the Cathedral[END]</t>
+          <t>Let's Go to the City[END]</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>22176</v>
+        <v>22608</v>
       </c>
       <c r="C266" t="n">
-        <v>144</v>
+        <v>252</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
         <is>
-          <t>Let's Go to the City[END]</t>
+          <t>Let's Go to the Dycroft![END]</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>22608</v>
+        <v>23484</v>
       </c>
       <c r="C267" t="n">
-        <v>252</v>
+        <v>471</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
         <is>
-          <t>Let's Go to the Dycroft![END]</t>
+          <t>Let's Go to the Harbor[END]</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>23484</v>
+        <v>22292</v>
       </c>
       <c r="C268" t="n">
-        <v>471</v>
+        <v>173</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
         <is>
-          <t>Let's Go to the Harbor[END]</t>
+          <t>Let's Go to the Largest Mansion in Town[END]</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>22292</v>
+        <v>21952</v>
       </c>
       <c r="C269" t="n">
-        <v>173</v>
+        <v>88</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
         <is>
-          <t>Let's Go to the Largest Mansion in Town[END]</t>
+          <t>Let's Go[END]</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>21952</v>
+        <v>24440</v>
       </c>
       <c r="C270" t="n">
-        <v>88</v>
+        <v>710</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
         <is>
-          <t>Let's Go[END]</t>
+          <t>Let's Head Back to the Inn Soon[END]</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>24440</v>
+        <v>24284</v>
       </c>
       <c r="C271" t="n">
-        <v>710</v>
+        <v>671</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
         <is>
-          <t>Let's Head Back to the Inn Soon[END]</t>
+          <t>Let's Head Back to the Others[END]</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>24284</v>
+        <v>23472</v>
       </c>
       <c r="C272" t="n">
-        <v>671</v>
+        <v>468</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
         <is>
-          <t>Let's Head Back to the Others[END]</t>
+          <t>Let's Head Outside First[END]</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>23472</v>
+        <v>23800</v>
       </c>
       <c r="C273" t="n">
-        <v>468</v>
+        <v>550</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
         <is>
-          <t>Let's Head Outside First[END]</t>
+          <t>Let's Head Towards Seinegald[END]</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>23800</v>
+        <v>22832</v>
       </c>
       <c r="C274" t="n">
-        <v>550</v>
+        <v>308</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
         <is>
-          <t>Let's Head Towards Seinegald[END]</t>
+          <t>Let's Head for the Cathedral[END]</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>22832</v>
+        <v>22172</v>
       </c>
       <c r="C275" t="n">
-        <v>308</v>
+        <v>143</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
         <is>
-          <t>Let's Head for the Cathedral[END]</t>
+          <t>Let's Head to Harmentz[END]</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>22172</v>
+        <v>24336</v>
       </c>
       <c r="C276" t="n">
-        <v>143</v>
+        <v>684</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
         <is>
-          <t>Let's Head to Harmentz[END]</t>
+          <t>Let's Head to Terrazi Castle[END]</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>24336</v>
+        <v>22528</v>
       </c>
       <c r="C277" t="n">
-        <v>684</v>
+        <v>232</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
         <is>
-          <t>Let's Head to Terrazi Castle[END]</t>
+          <t>Let's Head to Town[END]</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>22528</v>
+        <v>22352</v>
       </c>
       <c r="C278" t="n">
-        <v>232</v>
+        <v>188</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
         <is>
-          <t>Let's Head to Town[END]</t>
+          <t>Let's Head to the Castle[END]</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>22352</v>
+        <v>23860</v>
       </c>
       <c r="C279" t="n">
-        <v>188</v>
+        <v>565</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
         <is>
-          <t>Let's Head to the Castle[END]</t>
+          <t>Let's Head to the Harbor[END]</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>23860</v>
+        <v>23856</v>
       </c>
       <c r="C280" t="n">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
         <is>
-          <t>Let's Head to the Harbor[END]</t>
+          <t>Let's Hurry Back to the Manor[END]</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>23856</v>
+        <v>24388</v>
       </c>
       <c r="C281" t="n">
-        <v>564</v>
+        <v>697</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
         <is>
-          <t>Let's Hurry Back to the Manor[END]</t>
+          <t>Let's Hurry to the Tavern[END]</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>24388</v>
+        <v>21860</v>
       </c>
       <c r="C282" t="n">
-        <v>697</v>
+        <v>65</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
         <is>
-          <t>Let's Hurry to the Tavern[END]</t>
+          <t>Let's Leave Josaia for Mikheil[END]</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>21860</v>
+        <v>23208</v>
       </c>
       <c r="C283" t="n">
-        <v>65</v>
+        <v>402</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
         <is>
-          <t>Let's Leave Josaia for Mikheil[END]</t>
+          <t>Let's Leave the Forest through the North[END]</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>23208</v>
+        <v>22820</v>
       </c>
       <c r="C284" t="n">
-        <v>402</v>
+        <v>305</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
         <is>
-          <t>Let's Leave the Forest through the North[END]</t>
+          <t>Let's Leave the Temple[END]</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>22820</v>
+        <v>22964</v>
       </c>
       <c r="C285" t="n">
-        <v>305</v>
+        <v>341</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
         <is>
-          <t>Let's Leave the Temple[END]</t>
+          <t>Let's Look Around Town[END]</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>22964</v>
+        <v>24276</v>
       </c>
       <c r="C286" t="n">
-        <v>341</v>
+        <v>669</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
         <is>
-          <t>Let's Look Around Town[END]</t>
+          <t>Let's Look for [Ilene]'s Manor[END]</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>24276</v>
+        <v>22248</v>
       </c>
       <c r="C287" t="n">
-        <v>669</v>
+        <v>162</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
         <is>
-          <t>Let's Look for [Ilene]'s Manor[END]</t>
+          <t>Let's Look for the Softy Kreem Stand[END]</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>22248</v>
+        <v>22256</v>
       </c>
       <c r="C288" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
         <is>
-          <t>Let's Look for the Softy Kreem Stand[END]</t>
+          <t>Let's Meet Everyone in the Square[END]</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>22256</v>
+        <v>22852</v>
       </c>
       <c r="C289" t="n">
-        <v>164</v>
+        <v>313</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
         <is>
-          <t>Let's Meet Everyone in the Square[END]</t>
+          <t>Let's Meet [Rutee] in Cresta[END]</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>22852</v>
+        <v>22844</v>
       </c>
       <c r="C290" t="n">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
         <is>
-          <t>Let's Meet [Rutee] in Cresta[END]</t>
+          <t>Let's Meet [Woodrow] at the Castle[END]</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>22844</v>
+        <v>22824</v>
       </c>
       <c r="C291" t="n">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
         <is>
-          <t>Let's Meet [Woodrow] at the Castle[END]</t>
+          <t>Let's Not Do That Now..[END]</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>22824</v>
+        <v>24436</v>
       </c>
       <c r="C292" t="n">
-        <v>306</v>
+        <v>709</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
         <is>
-          <t>Let's Not Do That Now..[END]</t>
+          <t>Let's Return to Darilsheid[END]</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>24436</v>
+        <v>24200</v>
       </c>
       <c r="C293" t="n">
-        <v>709</v>
+        <v>650</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
         <is>
-          <t>Let's Return to Darilsheid[END]</t>
+          <t>Let's Return to the Entrance[END]</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>24200</v>
+        <v>21820</v>
       </c>
       <c r="C294" t="n">
-        <v>650</v>
+        <v>55</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
         <is>
-          <t>Let's Return to the Entrance[END]</t>
+          <t>Let's Return to the Manor[END]</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>21820</v>
+        <v>24216</v>
       </c>
       <c r="C295" t="n">
-        <v>55</v>
+        <v>654</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
         <is>
-          <t>Let's Return to the Manor[END]</t>
+          <t>Let's Return to the Others[END]</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>24216</v>
+        <v>23168</v>
       </c>
       <c r="C296" t="n">
-        <v>654</v>
+        <v>392</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
         <is>
-          <t>Let's Return to the Others[END]</t>
+          <t>Let's Rush to Where the King is[END]</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>23168</v>
+        <v>22864</v>
       </c>
       <c r="C297" t="n">
-        <v>392</v>
+        <v>316</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
         <is>
-          <t>Let's Rush to Where the King is[END]</t>
+          <t>Let's Search for the Barrier Stones[END]</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>22864</v>
+        <v>22020</v>
       </c>
       <c r="C298" t="n">
-        <v>316</v>
+        <v>105</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
         <is>
-          <t>Let's Search for the Barrier Stones[END]</t>
+          <t>Let's See What's Happening[END]</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>22020</v>
+        <v>23772</v>
       </c>
       <c r="C299" t="n">
-        <v>105</v>
+        <v>543</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
         <is>
-          <t>Let's See What's Happening[END]</t>
+          <t>Let's See [Reynolds] in Seinegald[END]</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>23772</v>
+        <v>23404</v>
       </c>
       <c r="C300" t="n">
-        <v>543</v>
+        <v>451</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
         <is>
-          <t>Let's See [Reynolds] in Seinegald[END]</t>
+          <t>Let's Speak to [Johnny][END]</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>23404</v>
+        <v>22440</v>
       </c>
       <c r="C301" t="n">
-        <v>451</v>
+        <v>210</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
         <is>
-          <t>Let's Speak to [Johnny][END]</t>
+          <t>Let's Stay Here[END]</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>22440</v>
+        <v>23804</v>
       </c>
       <c r="C302" t="n">
-        <v>210</v>
+        <v>551</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
         <is>
-          <t>Let's Stay Here[END]</t>
+          <t>Let's Stay in Town[END]</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>23804</v>
+        <v>23492</v>
       </c>
       <c r="C303" t="n">
-        <v>551</v>
+        <v>473</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
         <is>
-          <t>Let's Stay in Town[END]</t>
+          <t>Let's Take Down [Miktran]![END]</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>23492</v>
+        <v>23508</v>
       </c>
       <c r="C304" t="n">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
         <is>
-          <t>Let's Take Down [Miktran]![END]</t>
+          <t>Let's Take the Draconis[END]</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>23508</v>
+        <v>23848</v>
       </c>
       <c r="C305" t="n">
-        <v>477</v>
+        <v>562</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
         <is>
-          <t>Let's Take the Draconis[END]</t>
+          <t>Let's Talk First[END]</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>23848</v>
+        <v>23776</v>
       </c>
       <c r="C306" t="n">
-        <v>562</v>
+        <v>544</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
         <is>
-          <t>Let's Talk First[END]</t>
+          <t>Let's Talk to the People in Town[END]</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>23776</v>
+        <v>23792</v>
       </c>
       <c r="C307" t="n">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
         <is>
-          <t>Let's Talk to the People in Town[END]</t>
+          <t>Let's get out of here![END]</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>23792</v>
+        <v>21892</v>
       </c>
       <c r="C308" t="n">
-        <v>548</v>
+        <v>73</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
         <is>
-          <t>Let's get out of here![END]</t>
+          <t>Let's go to Harmentz[END]</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>21892</v>
+        <v>24196</v>
       </c>
       <c r="C309" t="n">
-        <v>73</v>
+        <v>649</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
         <is>
-          <t>Let's go to Harmentz[END]</t>
+          <t>Let's go to Terrazi Castle[END]</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>24196</v>
+        <v>22532</v>
       </c>
       <c r="C310" t="n">
-        <v>649</v>
+        <v>233</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
         <is>
-          <t>Let's go to Terrazi Castle[END]</t>
+          <t>Let's go to the Central Area[END]</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>22532</v>
+        <v>23164</v>
       </c>
       <c r="C311" t="n">
-        <v>233</v>
+        <v>391</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
         <is>
-          <t>Let's go to the Central Area[END]</t>
+          <t>Let's hear Hugo's Orders[END]</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>23164</v>
+        <v>24400</v>
       </c>
       <c r="C312" t="n">
-        <v>391</v>
+        <v>700</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
         <is>
-          <t>Let's hear Hugo's Orders[END]</t>
+          <t>Let's return to Radirol[END]</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>24400</v>
+        <v>23176</v>
       </c>
       <c r="C313" t="n">
-        <v>700</v>
+        <v>394</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
         <is>
-          <t>Let's return to Radirol[END]</t>
+          <t>Like-Minded[END]</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>23176</v>
+        <v>22988</v>
       </c>
       <c r="C314" t="n">
-        <v>394</v>
+        <v>347</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
         <is>
-          <t>Like-Minded[END]</t>
+          <t>Long Time No See[END]</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>22988</v>
+        <v>21920</v>
       </c>
       <c r="C315" t="n">
-        <v>347</v>
+        <v>80</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
         <is>
-          <t>Long Time No See[END]</t>
+          <t>Look for the Zelkova Tree in the Backwoods[END]</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>21920</v>
+        <v>21668</v>
       </c>
       <c r="C316" t="n">
-        <v>80</v>
+        <v>17</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
         <is>
-          <t>Look for the Zelkova Tree in the Backwoods[END]</t>
+          <t>Looking Forward to Next Time[END]</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>21668</v>
+        <v>22232</v>
       </c>
       <c r="C317" t="n">
-        <v>17</v>
+        <v>158</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
         <is>
-          <t>Looking Forward to Next Time[END]</t>
+          <t>Looking for Gald[END]</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>22232</v>
+        <v>23684</v>
       </c>
       <c r="C318" t="n">
-        <v>158</v>
+        <v>521</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
         <is>
-          <t>Looking for Gald[END]</t>
+          <t>Looking for my Glasses[END]</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>23684</v>
+        <v>22152</v>
       </c>
       <c r="C319" t="n">
-        <v>521</v>
+        <v>138</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
         <is>
-          <t>Looking for my Glasses[END]</t>
+          <t>Master Credentials[END]</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>22152</v>
+        <v>22624</v>
       </c>
       <c r="C320" t="n">
-        <v>138</v>
+        <v>256</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
         <is>
-          <t>Master Credentials[END]</t>
+          <t>Meeting after a Long Absence[END]</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>22624</v>
+        <v>23244</v>
       </c>
       <c r="C321" t="n">
-        <v>256</v>
+        <v>411</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
         <is>
-          <t>Meeting after a Long Absence[END]</t>
+          <t>Merits and Demerits[END]</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>23244</v>
+        <v>23708</v>
       </c>
       <c r="C322" t="n">
-        <v>411</v>
+        <v>527</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
         <is>
-          <t>Merits and Demerits[END]</t>
+          <t>Monsters in Town!?[END]</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>23708</v>
+        <v>22268</v>
       </c>
       <c r="C323" t="n">
-        <v>527</v>
+        <v>167</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
         <is>
-          <t>Monsters in Town!?[END]</t>
+          <t>Moreau is a Water Town[END]</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>22268</v>
+        <v>22404</v>
       </c>
       <c r="C324" t="n">
-        <v>167</v>
+        <v>201</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
         <is>
-          <t>Moreau is a Water Town[END]</t>
+          <t>My Family Is Far Away[END]</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>22404</v>
+        <v>22228</v>
       </c>
       <c r="C325" t="n">
-        <v>201</v>
+        <v>157</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
         <is>
-          <t>My Family Is Far Away[END]</t>
+          <t>My Hair will Probably Grow[END]</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>22228</v>
+        <v>22792</v>
       </c>
       <c r="C326" t="n">
-        <v>157</v>
+        <v>298</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
         <is>
-          <t>My Hair will Probably Grow[END]</t>
+          <t>My Long-Awaited Pass[END]</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>22792</v>
+        <v>21792</v>
       </c>
       <c r="C327" t="n">
-        <v>298</v>
+        <v>48</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
         <is>
-          <t>My Long-Awaited Pass[END]</t>
+          <t>My Sister's Thoughts[END]</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>21792</v>
+        <v>23888</v>
       </c>
       <c r="C328" t="n">
-        <v>48</v>
+        <v>572</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
         <is>
-          <t>My Sister's Thoughts[END]</t>
+          <t>My Target is Greybum[END]</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>23888</v>
+        <v>24312</v>
       </c>
       <c r="C329" t="n">
-        <v>572</v>
+        <v>678</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
         <is>
-          <t>My Target is Greybum[END]</t>
+          <t>Mystery of the Barrier Stone[END]</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>24312</v>
+        <v>21988</v>
       </c>
       <c r="C330" t="n">
-        <v>678</v>
+        <v>97</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
         <is>
-          <t>Mystery of the Barrier Stone[END]</t>
+          <t>Natural Enemies?[END]</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>21988</v>
+        <v>23120</v>
       </c>
       <c r="C331" t="n">
-        <v>97</v>
+        <v>380</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
         <is>
-          <t>Natural Enemies?[END]</t>
+          <t>Need a Weapon, Fast![END]</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>23120</v>
+        <v>21604</v>
       </c>
       <c r="C332" t="n">
-        <v>380</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
         <is>
-          <t>Need a Weapon, Fast![END]</t>
+          <t>Neuestadt is Southeast of Lienea[END]</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>21604</v>
+        <v>22744</v>
       </c>
       <c r="C333" t="n">
-        <v>1</v>
+        <v>286</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="inlineStr">
         <is>
-          <t>Neuestadt is Southeast of Lienea[END]</t>
+          <t>Neustadt Sure is Lively[END]</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>22744</v>
+        <v>22220</v>
       </c>
       <c r="C334" t="n">
-        <v>286</v>
+        <v>155</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="inlineStr">
         <is>
-          <t>Neustadt Sure is Lively[END]</t>
+          <t>New Song Material[END]</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>22220</v>
+        <v>22552</v>
       </c>
       <c r="C335" t="n">
-        <v>155</v>
+        <v>238</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="inlineStr">
         <is>
-          <t>New Song Material[END]</t>
+          <t>No Business Outside[END]</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>22552</v>
+        <v>24384</v>
       </c>
       <c r="C336" t="n">
-        <v>238</v>
+        <v>696</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="inlineStr">
         <is>
-          <t>No Business Outside[END]</t>
+          <t>No Business at This Town[END]</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>24384</v>
+        <v>23884</v>
       </c>
       <c r="C337" t="n">
-        <v>696</v>
+        <v>571</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="inlineStr">
         <is>
-          <t>No Business at This Town[END]</t>
+          <t>No Business at the Castle[END]</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>23884</v>
+        <v>24192</v>
       </c>
       <c r="C338" t="n">
-        <v>571</v>
+        <v>648</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="inlineStr">
         <is>
-          <t>No Business at the Castle[END]</t>
+          <t>North from Here[END]</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>24192</v>
+        <v>23808</v>
       </c>
       <c r="C339" t="n">
-        <v>648</v>
+        <v>552</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="inlineStr">
         <is>
-          <t>North from Here[END]</t>
+          <t>Northeast from Here[END]</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>23808</v>
+        <v>23812</v>
       </c>
       <c r="C340" t="n">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="inlineStr">
         <is>
-          <t>Northeast from Here[END]</t>
+          <t>Northwest from Here[END]</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>23812</v>
+        <v>23836</v>
       </c>
       <c r="C341" t="n">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="inlineStr">
         <is>
-          <t>Northwest from Here[END]</t>
+          <t>Nostalgic Radisrol[END]</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>23836</v>
+        <v>22064</v>
       </c>
       <c r="C342" t="n">
-        <v>559</v>
+        <v>116</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="inlineStr">
         <is>
-          <t>Nostalgic Radisrol[END]</t>
+          <t>Not Everyone is Bad[END]</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>22064</v>
+        <v>21704</v>
       </c>
       <c r="C343" t="n">
-        <v>116</v>
+        <v>26</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="inlineStr">
         <is>
-          <t>Not Everyone is Bad[END]</t>
+          <t>Not That Way[END]</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>21704</v>
+        <v>23760</v>
       </c>
       <c r="C344" t="n">
-        <v>26</v>
+        <v>540</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="inlineStr">
         <is>
-          <t>Not That Way[END]</t>
+          <t>Not This Way[END]</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>23760</v>
+        <v>23744</v>
       </c>
       <c r="C345" t="n">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="inlineStr">
         <is>
-          <t>Not This Way[END]</t>
+          <t>Not [Dymlos] and [Atwight]..[END]</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>23744</v>
+        <v>24072</v>
       </c>
       <c r="C346" t="n">
-        <v>536</v>
+        <v>618</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="inlineStr">
         <is>
-          <t>Not [Dymlos] and [Atwight]..[END]</t>
+          <t>Nothing Important. Just Killing Time[END]</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>24072</v>
+        <v>24124</v>
       </c>
       <c r="C347" t="n">
-        <v>618</v>
+        <v>631</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="inlineStr">
         <is>
-          <t>Nothing Important. Just Killing Time[END]</t>
+          <t>Objective: Back Entrance of the Temple[END]</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>24124</v>
+        <v>22168</v>
       </c>
       <c r="C348" t="n">
-        <v>631</v>
+        <v>142</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="inlineStr">
         <is>
-          <t>Objective: Back Entrance of the Temple[END]</t>
+          <t>Observer[END]</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>22168</v>
+        <v>23020</v>
       </c>
       <c r="C349" t="n">
-        <v>142</v>
+        <v>355</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="inlineStr">
         <is>
-          <t>Observer[END]</t>
+          <t>Once Outside the Arena..[END]</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>23020</v>
+        <v>22288</v>
       </c>
       <c r="C350" t="n">
-        <v>355</v>
+        <v>172</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="inlineStr">
         <is>
-          <t>Once Outside the Arena..[END]</t>
+          <t>One Job Done[END]</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>22288</v>
+        <v>23128</v>
       </c>
       <c r="C351" t="n">
-        <v>172</v>
+        <v>382</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="inlineStr">
         <is>
-          <t>One Job Done[END]</t>
+          <t>Onigiri[END]</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>23128</v>
+        <v>24176</v>
       </c>
       <c r="C352" t="n">
-        <v>382</v>
+        <v>644</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="inlineStr">
         <is>
-          <t>Onigiri[END]</t>
+          <t>Open the Door![END]</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>24176</v>
+        <v>22056</v>
       </c>
       <c r="C353" t="n">
-        <v>644</v>
+        <v>114</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="inlineStr">
         <is>
-          <t>Open the Door![END]</t>
+          <t>Other Things to Do[END]</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>22056</v>
+        <v>23784</v>
       </c>
       <c r="C354" t="n">
-        <v>114</v>
+        <v>546</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="inlineStr">
         <is>
-          <t>Other Things to Do[END]</t>
+          <t>Our Intent?[END]</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>23784</v>
+        <v>22800</v>
       </c>
       <c r="C355" t="n">
-        <v>546</v>
+        <v>300</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="inlineStr">
         <is>
-          <t>Our Intent?[END]</t>
+          <t>Outtake 1[END]</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>22800</v>
+        <v>23968</v>
       </c>
       <c r="C356" t="n">
-        <v>300</v>
+        <v>592</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="inlineStr">
         <is>
-          <t>Outtake 1[END]</t>
+          <t>Outtake 2[END]</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>23968</v>
+        <v>23972</v>
       </c>
       <c r="C357" t="n">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="inlineStr">
         <is>
-          <t>Outtake 2[END]</t>
+          <t>Parental Bonds[END]</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>23972</v>
+        <v>22696</v>
       </c>
       <c r="C358" t="n">
-        <v>593</v>
+        <v>274</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="inlineStr">
         <is>
-          <t>Parental Bonds[END]</t>
+          <t>Pass Through Josaia to Mikheil[END]</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>22696</v>
+        <v>23204</v>
       </c>
       <c r="C359" t="n">
-        <v>274</v>
+        <v>401</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="inlineStr">
         <is>
-          <t>Pass Through Josaia to Mikheil[END]</t>
+          <t>Personal Responsibility[END]</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>23204</v>
+        <v>23648</v>
       </c>
       <c r="C360" t="n">
-        <v>401</v>
+        <v>512</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="inlineStr">
         <is>
-          <t>Personal Responsibility[END]</t>
+          <t>Phantasia[END]</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>23648</v>
+        <v>23980</v>
       </c>
       <c r="C361" t="n">
-        <v>512</v>
+        <v>595</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="inlineStr">
         <is>
-          <t>Phantasia[END]</t>
+          <t>Please Keep it to Yourself[END]</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>23980</v>
+        <v>22376</v>
       </c>
       <c r="C362" t="n">
-        <v>595</v>
+        <v>194</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="inlineStr">
         <is>
-          <t>Please Keep it to Yourself[END]</t>
+          <t>Positive and Negative Words[END]</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>22376</v>
+        <v>23652</v>
       </c>
       <c r="C363" t="n">
-        <v>194</v>
+        <v>513</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="inlineStr">
         <is>
-          <t>Positive and Negative Words[END]</t>
+          <t>Potential Substitute?[END]</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>23652</v>
+        <v>23644</v>
       </c>
       <c r="C364" t="n">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="inlineStr">
         <is>
-          <t>Potential Substitute?[END]</t>
+          <t>Pow Hammer![END]</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>23644</v>
+        <v>24172</v>
       </c>
       <c r="C365" t="n">
-        <v>511</v>
+        <v>643</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="inlineStr">
         <is>
-          <t>Pow Hammer![END]</t>
+          <t>Preparing for Tomorrow at the Inn[END]</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>24172</v>
+        <v>23460</v>
       </c>
       <c r="C366" t="n">
-        <v>643</v>
+        <v>465</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="inlineStr">
         <is>
-          <t>Preparing for Tomorrow at the Inn[END]</t>
+          <t>Pretty Tiara[MUSIC][END]</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>23460</v>
+        <v>21900</v>
       </c>
       <c r="C367" t="n">
-        <v>465</v>
+        <v>75</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="inlineStr">
         <is>
-          <t>Pretty Tiara[MUSIC][END]</t>
+          <t>Qualifications of a Swordian Master?[END]</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>21900</v>
+        <v>23136</v>
       </c>
       <c r="C368" t="n">
-        <v>75</v>
+        <v>384</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="inlineStr">
         <is>
-          <t>Qualifications of a Swordian Master?[END]</t>
+          <t>Question![END]</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>23136</v>
+        <v>23900</v>
       </c>
       <c r="C369" t="n">
-        <v>384</v>
+        <v>575</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="inlineStr">
         <is>
-          <t>Question![END]</t>
+          <t>Questioning Yourself?[END]</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>23900</v>
+        <v>21716</v>
       </c>
       <c r="C370" t="n">
-        <v>575</v>
+        <v>29</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="inlineStr">
         <is>
-          <t>Questioning Yourself?[END]</t>
+          <t>Quickly, to the Orphanage[END]</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>21716</v>
+        <v>23264</v>
       </c>
       <c r="C371" t="n">
-        <v>29</v>
+        <v>416</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="inlineStr">
         <is>
-          <t>Quickly, to the Orphanage[END]</t>
+          <t>Race - 1[END]</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>23264</v>
+        <v>23892</v>
       </c>
       <c r="C372" t="n">
-        <v>416</v>
+        <v>573</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="inlineStr">
         <is>
-          <t>Race - 1[END]</t>
+          <t>Race - 2[END]</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>23892</v>
+        <v>23896</v>
       </c>
       <c r="C373" t="n">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="inlineStr">
         <is>
-          <t>Race - 2[END]</t>
+          <t>Radisrol is East of Calvalese[END]</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>23896</v>
+        <v>22924</v>
       </c>
       <c r="C374" t="n">
-        <v>574</v>
+        <v>331</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="inlineStr">
         <is>
-          <t>Radisrol is East of Calvalese[END]</t>
+          <t>Radisrol is to the East of Calvalese[END]</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>22924</v>
+        <v>22920</v>
       </c>
       <c r="C375" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="inlineStr">
         <is>
-          <t>Radisrol is to the East of Calvalese[END]</t>
+          <t>Reach Cyril Through the Forest[END]</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>22920</v>
+        <v>22644</v>
       </c>
       <c r="C376" t="n">
-        <v>330</v>
+        <v>261</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="inlineStr">
         <is>
-          <t>Reach Cyril Through the Forest[END]</t>
+          <t>Ready![END]</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>22644</v>
+        <v>23904</v>
       </c>
       <c r="C377" t="n">
-        <v>261</v>
+        <v>576</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="inlineStr">
         <is>
-          <t>Ready![END]</t>
+          <t>Reckless [Philia]?[END]</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>23904</v>
+        <v>23200</v>
       </c>
       <c r="C378" t="n">
-        <v>576</v>
+        <v>400</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="inlineStr">
         <is>
-          <t>Reckless [Philia]?[END]</t>
+          <t>Report to His Majesty[END]</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>23200</v>
+        <v>24256</v>
       </c>
       <c r="C379" t="n">
-        <v>400</v>
+        <v>664</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="inlineStr">
         <is>
-          <t>Report to His Majesty[END]</t>
+          <t>Respite at the End of the Passage[END]</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>24256</v>
+        <v>22688</v>
       </c>
       <c r="C380" t="n">
-        <v>664</v>
+        <v>272</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="inlineStr">
         <is>
-          <t>Respite at the End of the Passage[END]</t>
+          <t>Respite[END]</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>22688</v>
+        <v>23864</v>
       </c>
       <c r="C381" t="n">
-        <v>272</v>
+        <v>566</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="inlineStr">
         <is>
-          <t>Respite[END]</t>
+          <t>Restoring Light to the World[END]</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>23864</v>
+        <v>23560</v>
       </c>
       <c r="C382" t="n">
-        <v>566</v>
+        <v>490</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="inlineStr">
         <is>
-          <t>Restoring Light to the World[END]</t>
+          <t>Return to Darilsheid[END]</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>23560</v>
+        <v>22040</v>
       </c>
       <c r="C383" t="n">
-        <v>490</v>
+        <v>110</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="inlineStr">
         <is>
-          <t>Return to Darilsheid[END]</t>
+          <t>Return to Radisrol[END]</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>22040</v>
+        <v>23096</v>
       </c>
       <c r="C384" t="n">
-        <v>110</v>
+        <v>374</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="inlineStr">
         <is>
-          <t>Return to Radisrol[END]</t>
+          <t>Return to the Mountain Hut[END]</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>23096</v>
+        <v>21672</v>
       </c>
       <c r="C385" t="n">
-        <v>374</v>
+        <v>18</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="inlineStr">
         <is>
-          <t>Return to the Mountain Hut[END]</t>
+          <t>Returning to Darilsheid[END]</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>21672</v>
+        <v>23268</v>
       </c>
       <c r="C386" t="n">
-        <v>18</v>
+        <v>417</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="inlineStr">
         <is>
-          <t>Returning to Darilsheid[END]</t>
+          <t>Revelation from Dreams?[END]</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>23268</v>
+        <v>22776</v>
       </c>
       <c r="C387" t="n">
-        <v>417</v>
+        <v>294</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="inlineStr">
         <is>
-          <t>Revelation from Dreams?[END]</t>
+          <t>Riding the Dragon[END]</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>22776</v>
+        <v>23304</v>
       </c>
       <c r="C388" t="n">
-        <v>294</v>
+        <v>426</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="inlineStr">
         <is>
-          <t>Riding the Dragon[END]</t>
+          <t>Righteous Fury?[END]</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>23304</v>
+        <v>22632</v>
       </c>
       <c r="C389" t="n">
-        <v>426</v>
+        <v>258</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="inlineStr">
         <is>
-          <t>Righteous Fury?[END]</t>
+          <t>Rodeon to Helraios[END]</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>22632</v>
+        <v>23104</v>
       </c>
       <c r="C390" t="n">
-        <v>258</v>
+        <v>376</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="inlineStr">
         <is>
-          <t>Rodeon to Helraios[END]</t>
+          <t>Ruins Near Lienea[END]</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>23104</v>
+        <v>22936</v>
       </c>
       <c r="C391" t="n">
-        <v>376</v>
+        <v>334</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="inlineStr">
         <is>
-          <t>Ruins Near Lienea[END]</t>
+          <t>Same Old, Same Old[END]</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>22936</v>
+        <v>22156</v>
       </c>
       <c r="C392" t="n">
-        <v>334</v>
+        <v>139</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="inlineStr">
         <is>
-          <t>Same Old, Same Old[END]</t>
+          <t>Searching for Berselium[END]</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>22156</v>
+        <v>23388</v>
       </c>
       <c r="C393" t="n">
-        <v>139</v>
+        <v>447</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="inlineStr">
         <is>
-          <t>Searching for Berselium[END]</t>
+          <t>Searching for Lens around the World[END]</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>23388</v>
+        <v>23428</v>
       </c>
       <c r="C394" t="n">
-        <v>447</v>
+        <v>457</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="inlineStr">
         <is>
-          <t>Searching for Lens around the World[END]</t>
+          <t>Secure the Transporter[END]</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>23428</v>
+        <v>23036</v>
       </c>
       <c r="C395" t="n">
-        <v>457</v>
+        <v>359</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="inlineStr">
         <is>
-          <t>Secure the Transporter[END]</t>
+          <t>Seeing Lens in Terazzi[END]</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>23036</v>
+        <v>23444</v>
       </c>
       <c r="C396" t="n">
-        <v>359</v>
+        <v>461</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="inlineStr">
         <is>
-          <t>Seeing Lens in Terazzi[END]</t>
+          <t>Seeking Lens in Calviola[END]</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>23444</v>
+        <v>23440</v>
       </c>
       <c r="C397" t="n">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="inlineStr">
         <is>
-          <t>Seeking Lens in Calviola[END]</t>
+          <t>Seeking Lens in Heidelberg[END]</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>23440</v>
+        <v>23436</v>
       </c>
       <c r="C398" t="n">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="inlineStr">
         <is>
-          <t>Seeking Lens in Heidelberg[END]</t>
+          <t>Seeking Lens in Neuestadt[END]</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>23436</v>
+        <v>23432</v>
       </c>
       <c r="C399" t="n">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="inlineStr">
         <is>
-          <t>Seeking Lens in Neuestadt[END]</t>
+          <t>Seinegald is Close[END]</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>23432</v>
+        <v>21700</v>
       </c>
       <c r="C400" t="n">
-        <v>458</v>
+        <v>25</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="inlineStr">
         <is>
-          <t>Seinegald is Close[END]</t>
+          <t>Severe Financial Conditions[END]</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>21700</v>
+        <v>21628</v>
       </c>
       <c r="C401" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="inlineStr">
         <is>
-          <t>Severe Financial Conditions[END]</t>
+          <t>Showdown at the Clock Tower[END]</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>21628</v>
+        <v>22700</v>
       </c>
       <c r="C402" t="n">
-        <v>7</v>
+        <v>275</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="inlineStr">
         <is>
-          <t>Showdown at the Clock Tower[END]</t>
+          <t>So Dashing![END]</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>22700</v>
+        <v>24096</v>
       </c>
       <c r="C403" t="n">
-        <v>275</v>
+        <v>624</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="inlineStr">
         <is>
-          <t>So Dashing![END]</t>
+          <t>So Insensitive[END]</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>24096</v>
+        <v>22728</v>
       </c>
       <c r="C404" t="n">
-        <v>624</v>
+        <v>282</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="inlineStr">
         <is>
-          <t>So Insensitive[END]</t>
+          <t>Softy Kreem![END]</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>22728</v>
+        <v>24092</v>
       </c>
       <c r="C405" t="n">
-        <v>282</v>
+        <v>623</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="inlineStr">
         <is>
-          <t>Softy Kreem![END]</t>
+          <t>Someday, I too will..[END]</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>24092</v>
+        <v>21644</v>
       </c>
       <c r="C406" t="n">
-        <v>623</v>
+        <v>11</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="inlineStr">
         <is>
-          <t>Someday, I too will..[END]</t>
+          <t>Songs are Magical[END]</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>21644</v>
+        <v>23420</v>
       </c>
       <c r="C407" t="n">
-        <v>11</v>
+        <v>455</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="inlineStr">
         <is>
-          <t>Songs are Magical[END]</t>
+          <t>Songs: A Window Into Our Soul[END]</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>23420</v>
+        <v>22480</v>
       </c>
       <c r="C408" t="n">
-        <v>455</v>
+        <v>220</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="inlineStr">
         <is>
-          <t>Songs: A Window Into Our Soul[END]</t>
+          <t>Sorcerer's Ring goes Boom[END]</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>22480</v>
+        <v>24420</v>
       </c>
       <c r="C409" t="n">
-        <v>220</v>
+        <v>705</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="inlineStr">
         <is>
-          <t>Sorcerer's Ring goes Boom[END]</t>
+          <t>South from Here[END]</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>24420</v>
+        <v>23824</v>
       </c>
       <c r="C410" t="n">
-        <v>705</v>
+        <v>556</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="inlineStr">
         <is>
-          <t>South from Here[END]</t>
+          <t>Southeast from Here[END]</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>23824</v>
+        <v>23820</v>
       </c>
       <c r="C411" t="n">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="inlineStr">
         <is>
-          <t>Southeast from Here[END]</t>
+          <t>Southeast from Lienea is Neuestadt[END]</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>23820</v>
+        <v>22748</v>
       </c>
       <c r="C412" t="n">
-        <v>555</v>
+        <v>287</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="inlineStr">
         <is>
-          <t>Southeast from Lienea is Neuestadt[END]</t>
+          <t>Southwest from Here[END]</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>22748</v>
+        <v>23828</v>
       </c>
       <c r="C413" t="n">
-        <v>287</v>
+        <v>557</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="inlineStr">
         <is>
-          <t>Southwest from Here[END]</t>
+          <t>Speaking of Temples?[END]</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>23828</v>
+        <v>21780</v>
       </c>
       <c r="C414" t="n">
-        <v>557</v>
+        <v>45</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="inlineStr">
         <is>
-          <t>Speaking of Temples?[END]</t>
+          <t>Status Report[END]</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>21780</v>
+        <v>22724</v>
       </c>
       <c r="C415" t="n">
-        <v>45</v>
+        <v>281</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="inlineStr">
         <is>
-          <t>Status Report[END]</t>
+          <t>Stay Positive[END]</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>22724</v>
+        <v>23424</v>
       </c>
       <c r="C416" t="n">
-        <v>281</v>
+        <v>456</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="inlineStr">
         <is>
-          <t>Stay Positive[END]</t>
+          <t>Still Practicing[END]</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>23424</v>
+        <v>23912</v>
       </c>
       <c r="C417" t="n">
-        <v>456</v>
+        <v>578</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="inlineStr">
         <is>
-          <t>Still Practicing[END]</t>
+          <t>Still a Child?[END]</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>23912</v>
+        <v>22628</v>
       </c>
       <c r="C418" t="n">
-        <v>578</v>
+        <v>257</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="inlineStr">
         <is>
-          <t>Still a Child?[END]</t>
+          <t>Stop the Guardian Dragon![END]</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>22628</v>
+        <v>23080</v>
       </c>
       <c r="C419" t="n">
-        <v>257</v>
+        <v>370</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="inlineStr">
         <is>
-          <t>Stop the Guardian Dragon![END]</t>
+          <t>Stoping a Century Old Ambition[END]</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>23080</v>
+        <v>23556</v>
       </c>
       <c r="C420" t="n">
-        <v>370</v>
+        <v>489</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="inlineStr">
         <is>
-          <t>Stoping a Century Old Ambition[END]</t>
+          <t>Stopping [Hugo]'s Plan[END]</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>23556</v>
+        <v>23236</v>
       </c>
       <c r="C421" t="n">
-        <v>489</v>
+        <v>409</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="inlineStr">
         <is>
-          <t>Stopping [Hugo]'s Plan[END]</t>
+          <t>Straylize Temple Is North of Darilsheid[END]</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>23236</v>
+        <v>24224</v>
       </c>
       <c r="C422" t="n">
-        <v>409</v>
+        <v>656</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="inlineStr">
         <is>
-          <t>Straylize Temple Is North of Darilsheid[END]</t>
+          <t>Straylize Temple is East of Armedia[END]</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>24224</v>
+        <v>21968</v>
       </c>
       <c r="C423" t="n">
-        <v>656</v>
+        <v>92</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="inlineStr">
         <is>
-          <t>Straylize Temple is East of Armedia[END]</t>
+          <t>Straylize Temple is to the East[END]</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>21968</v>
+        <v>21964</v>
       </c>
       <c r="C424" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="inlineStr">
         <is>
-          <t>Straylize Temple is to the East[END]</t>
+          <t>Suprising Suited for Command?[END]</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>21964</v>
+        <v>23696</v>
       </c>
       <c r="C425" t="n">
-        <v>91</v>
+        <v>524</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="inlineStr">
         <is>
-          <t>Suprising Suited for Command?[END]</t>
+          <t>Swordian Conference[END]</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>23696</v>
+        <v>23196</v>
       </c>
       <c r="C426" t="n">
-        <v>524</v>
+        <v>399</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="inlineStr">
         <is>
-          <t>Swordian Conference[END]</t>
+          <t>Swordian Council?[END]</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>23196</v>
+        <v>22556</v>
       </c>
       <c r="C427" t="n">
-        <v>399</v>
+        <v>239</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="inlineStr">
         <is>
-          <t>Swordian Council?[END]</t>
+          <t>Swordian's Weakness[END]</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>22556</v>
+        <v>22388</v>
       </c>
       <c r="C428" t="n">
-        <v>239</v>
+        <v>197</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="inlineStr">
         <is>
-          <t>Swordian's Weakness[END]</t>
+          <t>Take Extra Care?[END]</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>22388</v>
+        <v>22112</v>
       </c>
       <c r="C429" t="n">
-        <v>197</v>
+        <v>128</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="inlineStr">
         <is>
-          <t>Take Extra Care?[END]</t>
+          <t>Take Him Down![END]</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>22112</v>
+        <v>23532</v>
       </c>
       <c r="C430" t="n">
-        <v>128</v>
+        <v>483</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="inlineStr">
         <is>
-          <t>Take Him Down![END]</t>
+          <t>Take a Small Boat to Moreau Castle[END]</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>23532</v>
+        <v>22448</v>
       </c>
       <c r="C431" t="n">
-        <v>483</v>
+        <v>212</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="inlineStr">
         <is>
-          <t>Take a Small Boat to Moreau Castle[END]</t>
+          <t>Take the Black Cross Ship to Terrazzi[END]</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>22448</v>
+        <v>22508</v>
       </c>
       <c r="C432" t="n">
-        <v>212</v>
+        <v>227</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="inlineStr">
         <is>
-          <t>Take the Black Cross Ship to Terrazzi[END]</t>
+          <t>Take the Device to Radisrol[END]</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>22508</v>
+        <v>23876</v>
       </c>
       <c r="C433" t="n">
-        <v>227</v>
+        <v>569</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="inlineStr">
         <is>
-          <t>Take the Device to Radisrol[END]</t>
+          <t>Take the East Gate to Help My Friend[END]</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>23876</v>
+        <v>21728</v>
       </c>
       <c r="C434" t="n">
-        <v>569</v>
+        <v>32</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="inlineStr">
         <is>
-          <t>Take the East Gate to Help My Friend[END]</t>
+          <t>Take the East Gate to go to the Ruins[END]</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>21728</v>
+        <v>21732</v>
       </c>
       <c r="C435" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="inlineStr">
         <is>
-          <t>Take the East Gate to go to the Ruins[END]</t>
+          <t>Take the North Gate to Seinegald[END]</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>21732</v>
+        <v>21724</v>
       </c>
       <c r="C436" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="inlineStr">
         <is>
-          <t>Take the North Gate to Seinegald[END]</t>
+          <t>Take the Ship to the Oberon Factory[END]</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>21724</v>
+        <v>22872</v>
       </c>
       <c r="C437" t="n">
-        <v>31</v>
+        <v>318</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="inlineStr">
         <is>
-          <t>Take the Ship to the Oberon Factory[END]</t>
+          <t>Taking the Dragon to the Swordian R&amp;D Lab[END]</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>22872</v>
+        <v>23308</v>
       </c>
       <c r="C438" t="n">
-        <v>318</v>
+        <v>427</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="inlineStr">
         <is>
-          <t>Taking the Dragon to the Swordian R&amp;D Lab[END]</t>
+          <t>Tales of Destiny[END]</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>23308</v>
+        <v>23992</v>
       </c>
       <c r="C439" t="n">
-        <v>427</v>
+        <v>598</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="inlineStr">
         <is>
-          <t>Tales of Destiny[END]</t>
+          <t>Talking in Private[END]</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>23992</v>
+        <v>23328</v>
       </c>
       <c r="C440" t="n">
-        <v>598</v>
+        <v>432</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="inlineStr">
         <is>
-          <t>Talking in Private[END]</t>
+          <t>Thank You, Everyone![END]</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>23328</v>
+        <v>23668</v>
       </c>
       <c r="C441" t="n">
-        <v>432</v>
+        <v>517</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="inlineStr">
         <is>
-          <t>Thank You, Everyone![END]</t>
+          <t>That's a Secret![END]</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>23668</v>
+        <v>21648</v>
       </c>
       <c r="C442" t="n">
-        <v>517</v>
+        <v>12</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="inlineStr">
         <is>
-          <t>That's a Secret![END]</t>
+          <t>The Abyss[END]</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>21648</v>
+        <v>23984</v>
       </c>
       <c r="C443" t="n">
-        <v>12</v>
+        <v>596</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="inlineStr">
         <is>
-          <t>The Abyss[END]</t>
+          <t>The Arena Is at the North Side of Town[END]</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>23984</v>
+        <v>22260</v>
       </c>
       <c r="C444" t="n">
-        <v>596</v>
+        <v>165</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="inlineStr">
         <is>
-          <t>The Arena Is at the North Side of Town[END]</t>
+          <t>The Arena at the North End of Main Street[END]</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>22260</v>
+        <v>22264</v>
       </c>
       <c r="C445" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="inlineStr">
         <is>
-          <t>The Arena at the North End of Main Street[END]</t>
+          <t>The Awakened Swordian[END]</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>22264</v>
+        <v>21840</v>
       </c>
       <c r="C446" t="n">
-        <v>166</v>
+        <v>60</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="inlineStr">
         <is>
-          <t>The Awakened Swordian[END]</t>
+          <t>The Backwoods are the Other Way[END]</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>21840</v>
+        <v>21636</v>
       </c>
       <c r="C447" t="n">
-        <v>60</v>
+        <v>9</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="inlineStr">
         <is>
-          <t>The Backwoods are the Other Way[END]</t>
+          <t>The Baruk Foundation Office Is in the City[END]</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>21636</v>
+        <v>22120</v>
       </c>
       <c r="C448" t="n">
-        <v>9</v>
+        <v>130</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="inlineStr">
         <is>
-          <t>The Baruk Foundation Office Is in the City[END]</t>
+          <t>The Beach[END]</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>22120</v>
+        <v>24140</v>
       </c>
       <c r="C449" t="n">
-        <v>130</v>
+        <v>635</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="inlineStr">
         <is>
-          <t>The Beach[END]</t>
+          <t>The Cave Entrance is to the South of Shiden[END]</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>24140</v>
+        <v>22356</v>
       </c>
       <c r="C450" t="n">
-        <v>635</v>
+        <v>189</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="inlineStr">
         <is>
-          <t>The Cave Entrance is to the South of Shiden[END]</t>
+          <t>The Cave is to the South of Shiden[END]</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>22356</v>
+        <v>22360</v>
       </c>
       <c r="C451" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="inlineStr">
         <is>
-          <t>The Cave is to the South of Shiden[END]</t>
+          <t>The City is South of the Forest[END]</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>22360</v>
+        <v>21832</v>
       </c>
       <c r="C452" t="n">
-        <v>190</v>
+        <v>58</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="inlineStr">
         <is>
-          <t>The City is South of the Forest[END]</t>
+          <t>The Depths of the Aeth'er Cruiser[END]</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>21832</v>
+        <v>23220</v>
       </c>
       <c r="C453" t="n">
-        <v>58</v>
+        <v>405</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="inlineStr">
         <is>
-          <t>The Depths of the Aeth'er Cruiser[END]</t>
+          <t>The Docks Are at the Center of Town[END]</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>23220</v>
+        <v>22536</v>
       </c>
       <c r="C454" t="n">
-        <v>405</v>
+        <v>234</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="inlineStr">
         <is>
-          <t>The Docks Are at the Center of Town[END]</t>
+          <t>The Draconis is in the Castle[END]</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>22536</v>
+        <v>24396</v>
       </c>
       <c r="C455" t="n">
-        <v>234</v>
+        <v>699</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="inlineStr">
         <is>
-          <t>The Draconis is in the Castle[END]</t>
+          <t>The Draconis is near Darilsheid[END]</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>24396</v>
+        <v>23400</v>
       </c>
       <c r="C456" t="n">
-        <v>699</v>
+        <v>450</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="inlineStr">
         <is>
-          <t>The Draconis is near Darilsheid[END]</t>
+          <t>The Final Test[END]</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>23400</v>
+        <v>23344</v>
       </c>
       <c r="C457" t="n">
-        <v>450</v>
+        <v>436</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="inlineStr">
         <is>
-          <t>The Final Test[END]</t>
+          <t>The Fun After Battle[END]</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>23344</v>
+        <v>23716</v>
       </c>
       <c r="C458" t="n">
-        <v>436</v>
+        <v>529</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="inlineStr">
         <is>
-          <t>The Fun After Battle[END]</t>
+          <t>The Future of Aquaveil[END]</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>23716</v>
+        <v>22548</v>
       </c>
       <c r="C459" t="n">
-        <v>529</v>
+        <v>237</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="inlineStr">
         <is>
-          <t>The Future of Aquaveil[END]</t>
+          <t>The Guardian Dragon is Important[END]</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>22548</v>
+        <v>23868</v>
       </c>
       <c r="C460" t="n">
-        <v>237</v>
+        <v>567</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="inlineStr">
         <is>
-          <t>The Guardian Dragon is Important[END]</t>
+          <t>The Harbor is in the East Side of Town[END]</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>23868</v>
+        <v>22048</v>
       </c>
       <c r="C461" t="n">
-        <v>567</v>
+        <v>112</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="inlineStr">
         <is>
-          <t>The Harbor is in the East Side of Town[END]</t>
+          <t>The Key to Strength[END]</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>22048</v>
+        <v>23596</v>
       </c>
       <c r="C462" t="n">
-        <v>112</v>
+        <v>499</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="inlineStr">
         <is>
-          <t>The Key to Strength[END]</t>
+          <t>The Lab Right in Front of Darilsheid[END]</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>23596</v>
+        <v>23316</v>
       </c>
       <c r="C463" t="n">
-        <v>499</v>
+        <v>429</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="inlineStr">
         <is>
-          <t>The Lab Right in Front of Darilsheid[END]</t>
+          <t>The Lab is West of Darilsheid[END]</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>23316</v>
+        <v>23312</v>
       </c>
       <c r="C464" t="n">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="inlineStr">
         <is>
-          <t>The Lab is West of Darilsheid[END]</t>
+          <t>The Legendary Hero?[END]</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>23312</v>
+        <v>21624</v>
       </c>
       <c r="C465" t="n">
-        <v>428</v>
+        <v>6</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="inlineStr">
         <is>
-          <t>The Legendary Hero?[END]</t>
+          <t>The Leviathan is Amazing![END]</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>21624</v>
+        <v>22068</v>
       </c>
       <c r="C466" t="n">
-        <v>6</v>
+        <v>117</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="inlineStr">
         <is>
-          <t>The Leviathan is Amazing![END]</t>
+          <t>The Life of a Lens Hunter[END]</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>22068</v>
+        <v>23616</v>
       </c>
       <c r="C467" t="n">
-        <v>117</v>
+        <v>504</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="inlineStr">
         <is>
-          <t>The Life of a Lens Hunter[END]</t>
+          <t>The Marvelous [Mary][END]</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>23616</v>
+        <v>22096</v>
       </c>
       <c r="C468" t="n">
-        <v>504</v>
+        <v>124</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="inlineStr">
         <is>
-          <t>The Marvelous [Mary][END]</t>
+          <t>The One We Long For[END]</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>22096</v>
+        <v>22732</v>
       </c>
       <c r="C469" t="n">
-        <v>124</v>
+        <v>283</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="inlineStr">
         <is>
-          <t>The One We Long For[END]</t>
+          <t>The Ones Left Behind - 1[END]</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>22732</v>
+        <v>22904</v>
       </c>
       <c r="C470" t="n">
-        <v>283</v>
+        <v>326</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="inlineStr">
         <is>
-          <t>The Ones Left Behind - 1[END]</t>
+          <t>The Ones Left Behind - 2[END]</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>22904</v>
+        <v>22908</v>
       </c>
       <c r="C471" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="inlineStr">
         <is>
-          <t>The Ones Left Behind - 2[END]</t>
+          <t>The Ones Left Behind - 3[END]</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>22908</v>
+        <v>22912</v>
       </c>
       <c r="C472" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="inlineStr">
         <is>
-          <t>The Ones Left Behind - 3[END]</t>
+          <t>The Origin of the Name[END]</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>22912</v>
+        <v>21924</v>
       </c>
       <c r="C473" t="n">
-        <v>328</v>
+        <v>81</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="inlineStr">
         <is>
-          <t>The Origin of the Name[END]</t>
+          <t>The Popsicle Stand is in the Square[END]</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>21924</v>
+        <v>22284</v>
       </c>
       <c r="C474" t="n">
-        <v>81</v>
+        <v>171</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="inlineStr">
         <is>
-          <t>The Popsicle Stand is in the Square[END]</t>
+          <t>The R Key Is at the Far End[END]</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>22284</v>
+        <v>22960</v>
       </c>
       <c r="C475" t="n">
-        <v>171</v>
+        <v>340</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="inlineStr">
         <is>
-          <t>The R Key Is at the Far End[END]</t>
+          <t>The Ruins Near Lienea Bay[END]</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>22960</v>
+        <v>22940</v>
       </c>
       <c r="C476" t="n">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="inlineStr">
         <is>
-          <t>The Ruins Near Lienea Bay[END]</t>
+          <t>The Same Rank?[END]</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>22940</v>
+        <v>22768</v>
       </c>
       <c r="C477" t="n">
-        <v>335</v>
+        <v>292</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="inlineStr">
         <is>
-          <t>The Same Rank?[END]</t>
+          <t>The Seal is Secured[END]</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>22768</v>
+        <v>22948</v>
       </c>
       <c r="C478" t="n">
-        <v>292</v>
+        <v>337</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="inlineStr">
         <is>
-          <t>The Seal is Secured[END]</t>
+          <t>The Seven Generals[END]</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>22948</v>
+        <v>21912</v>
       </c>
       <c r="C479" t="n">
-        <v>337</v>
+        <v>78</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="inlineStr">
         <is>
-          <t>The Seven Generals[END]</t>
+          <t>The Softy Kreem Stand is to the North[END]</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>21912</v>
+        <v>22252</v>
       </c>
       <c r="C480" t="n">
-        <v>78</v>
+        <v>163</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="inlineStr">
         <is>
-          <t>The Softy Kreem Stand is to the North[END]</t>
+          <t>The Tavern is part of the Inn[END]</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>22252</v>
+        <v>21836</v>
       </c>
       <c r="C481" t="n">
-        <v>163</v>
+        <v>59</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="inlineStr">
         <is>
-          <t>The Tavern is part of the Inn[END]</t>
+          <t>The Temple is North of Darilsheid[END]</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>21836</v>
+        <v>21956</v>
       </c>
       <c r="C482" t="n">
-        <v>59</v>
+        <v>89</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="inlineStr">
         <is>
-          <t>The Temple is North of Darilsheid[END]</t>
+          <t>The Temple is in the City[END]</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>21956</v>
+        <v>22160</v>
       </c>
       <c r="C483" t="n">
-        <v>89</v>
+        <v>140</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="inlineStr">
         <is>
-          <t>The Temple is in the City[END]</t>
+          <t>The Temple is through a Hidden Passage[END]</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>22160</v>
+        <v>21768</v>
       </c>
       <c r="C484" t="n">
-        <v>140</v>
+        <v>42</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="inlineStr">
         <is>
-          <t>The Temple is through a Hidden Passage[END]</t>
+          <t>The Temple's Hidden Passage is in the Woods[END]</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>21768</v>
+        <v>21740</v>
       </c>
       <c r="C485" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="inlineStr">
         <is>
-          <t>The Temple's Hidden Passage is in the Woods[END]</t>
+          <t>The True Helpers?[END]</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>21740</v>
+        <v>22460</v>
       </c>
       <c r="C486" t="n">
-        <v>35</v>
+        <v>215</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="inlineStr">
         <is>
-          <t>The True Helpers?[END]</t>
+          <t>The Two of Us[END]</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>22460</v>
+        <v>24088</v>
       </c>
       <c r="C487" t="n">
-        <v>215</v>
+        <v>622</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="inlineStr">
         <is>
-          <t>The Two of Us[END]</t>
+          <t>The Unique Beliefs of Calvalese[END]</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>24088</v>
+        <v>22132</v>
       </c>
       <c r="C488" t="n">
-        <v>622</v>
+        <v>133</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="inlineStr">
         <is>
-          <t>The Unique Beliefs of Calvalese[END]</t>
+          <t>Their Feelings[END]</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>22132</v>
+        <v>22916</v>
       </c>
       <c r="C489" t="n">
-        <v>133</v>
+        <v>329</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="inlineStr">
         <is>
-          <t>Their Feelings[END]</t>
+          <t>There's Still Places We Can Destroy[END]</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>22916</v>
+        <v>24424</v>
       </c>
       <c r="C490" t="n">
-        <v>329</v>
+        <v>706</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="inlineStr">
         <is>
-          <t>There's Still Places We Can Destroy[END]</t>
+          <t>There's an Ocean Above our Heads[END]</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>24424</v>
+        <v>22368</v>
       </c>
       <c r="C491" t="n">
-        <v>706</v>
+        <v>192</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="inlineStr">
         <is>
-          <t>There's an Ocean Above our Heads[END]</t>
+          <t>They're Compatriots[END]</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>22368</v>
+        <v>22592</v>
       </c>
       <c r="C492" t="n">
-        <v>192</v>
+        <v>248</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="inlineStr">
         <is>
-          <t>They're Compatriots[END]</t>
+          <t>Thirsty[END]</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>22592</v>
+        <v>24164</v>
       </c>
       <c r="C493" t="n">
-        <v>248</v>
+        <v>641</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="inlineStr">
         <is>
-          <t>Thirsty[END]</t>
+          <t>This and That[END]</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>24164</v>
+        <v>21752</v>
       </c>
       <c r="C494" t="n">
-        <v>641</v>
+        <v>38</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="inlineStr">
         <is>
-          <t>This and That[END]</t>
+          <t>Though the Passage to the Castle[END]</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>21752</v>
+        <v>22692</v>
       </c>
       <c r="C495" t="n">
-        <v>38</v>
+        <v>273</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="inlineStr">
         <is>
-          <t>Though the Passage to the Castle[END]</t>
+          <t>Thoughts on the Aetherians?[END]</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>22692</v>
+        <v>23112</v>
       </c>
       <c r="C496" t="n">
-        <v>273</v>
+        <v>378</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="inlineStr">
         <is>
-          <t>Thoughts on the Aetherians?[END]</t>
+          <t>Through Rodeon to Helraios[END]</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>23112</v>
+        <v>23144</v>
       </c>
       <c r="C497" t="n">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="inlineStr">
         <is>
-          <t>Through Rodeon to Helraios[END]</t>
+          <t>Through Tilso Forest to Heidelberg[END]</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>23144</v>
+        <v>22616</v>
       </c>
       <c r="C498" t="n">
-        <v>386</v>
+        <v>254</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="inlineStr">
         <is>
-          <t>Through Tilso Forest to Heidelberg[END]</t>
+          <t>Through the Forest to Cyril[END]</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>22616</v>
+        <v>22640</v>
       </c>
       <c r="C499" t="n">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="inlineStr">
         <is>
-          <t>Through the Forest to Cyril[END]</t>
+          <t>Through the Forest to Straylize Temple[END]</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>22640</v>
+        <v>21976</v>
       </c>
       <c r="C500" t="n">
-        <v>260</v>
+        <v>94</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="inlineStr">
         <is>
-          <t>Through the Forest to Straylize Temple[END]</t>
+          <t>Through the Underwater Cave to Moreau[END]</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>21976</v>
+        <v>22392</v>
       </c>
       <c r="C501" t="n">
-        <v>94</v>
+        <v>198</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="inlineStr">
         <is>
-          <t>Through the Underwater Cave to Moreau[END]</t>
+          <t>Tilso Forest is West of Frostheim[END]</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>22392</v>
+        <v>22620</v>
       </c>
       <c r="C502" t="n">
-        <v>198</v>
+        <v>255</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="inlineStr">
         <is>
-          <t>Tilso Forest is West of Frostheim[END]</t>
+          <t>Tireless Effort is the Secret to Victory[END]</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>22620</v>
+        <v>23712</v>
       </c>
       <c r="C503" t="n">
-        <v>255</v>
+        <v>528</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="inlineStr">
         <is>
-          <t>Tireless Effort is the Secret to Victory[END]</t>
+          <t>To Batista[END]</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>23712</v>
+        <v>22500</v>
       </c>
       <c r="C504" t="n">
-        <v>528</v>
+        <v>225</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="inlineStr">
         <is>
-          <t>To Batista[END]</t>
+          <t>To Calviola, North of Cherik[END]</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>22500</v>
+        <v>22128</v>
       </c>
       <c r="C505" t="n">
-        <v>225</v>
+        <v>132</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="inlineStr">
         <is>
-          <t>To Calviola, North of Cherik[END]</t>
+          <t>To Darilsheid[END]</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>22128</v>
+        <v>24240</v>
       </c>
       <c r="C506" t="n">
-        <v>132</v>
+        <v>660</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="inlineStr">
         <is>
-          <t>To Darilsheid[END]</t>
+          <t>To Dycroft![END]</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>24240</v>
+        <v>23488</v>
       </c>
       <c r="C507" t="n">
-        <v>660</v>
+        <v>472</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="inlineStr">
         <is>
-          <t>To Dycroft![END]</t>
+          <t>To Get to Moreau Castle, You Need a Boat[END]</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>23488</v>
+        <v>22444</v>
       </c>
       <c r="C508" t="n">
-        <v>472</v>
+        <v>211</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="inlineStr">
         <is>
-          <t>To Get to Moreau Castle, You Need a Boat[END]</t>
+          <t>To Helraios via Rodeon[END]</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>22444</v>
+        <v>23100</v>
       </c>
       <c r="C509" t="n">
-        <v>211</v>
+        <v>375</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="inlineStr">
         <is>
-          <t>To Helraios via Rodeon[END]</t>
+          <t>To Ignasea via Deimos[END]</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>23100</v>
+        <v>23088</v>
       </c>
       <c r="C510" t="n">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="inlineStr">
         <is>
-          <t>To Ignasea via Deimos[END]</t>
+          <t>To Mikheil via Josaia[END]</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>23088</v>
+        <v>23184</v>
       </c>
       <c r="C511" t="n">
-        <v>372</v>
+        <v>396</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="inlineStr">
         <is>
-          <t>To Mikheil via Josaia[END]</t>
+          <t>To Moreau[END]</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>23184</v>
+        <v>22400</v>
       </c>
       <c r="C512" t="n">
-        <v>396</v>
+        <v>200</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="inlineStr">
         <is>
-          <t>To Moreau[END]</t>
+          <t>To Reach the Factory, We Need a Ship[END]</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>22400</v>
+        <v>22868</v>
       </c>
       <c r="C513" t="n">
-        <v>200</v>
+        <v>317</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="inlineStr">
         <is>
-          <t>To Reach the Factory, We Need a Ship[END]</t>
+          <t>To Seinegald Castle[END]</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>22868</v>
+        <v>24332</v>
       </c>
       <c r="C514" t="n">
-        <v>317</v>
+        <v>683</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="inlineStr">
         <is>
-          <t>To Seinegald Castle[END]</t>
+          <t>To Straylize Temple[END]</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>24332</v>
+        <v>24344</v>
       </c>
       <c r="C515" t="n">
-        <v>683</v>
+        <v>686</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="inlineStr">
         <is>
-          <t>To Straylize Temple[END]</t>
+          <t>To The Clock Tower[END]</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>24344</v>
+        <v>22704</v>
       </c>
       <c r="C516" t="n">
-        <v>686</v>
+        <v>276</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="inlineStr">
         <is>
-          <t>To The Clock Tower[END]</t>
+          <t>To Where [Marian] Is...[END]</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>22704</v>
+        <v>24264</v>
       </c>
       <c r="C517" t="n">
-        <v>276</v>
+        <v>666</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="inlineStr">
         <is>
-          <t>To Where [Marian] Is...[END]</t>
+          <t>To [Reynolds]' Lab[END]</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>24264</v>
+        <v>23284</v>
       </c>
       <c r="C518" t="n">
-        <v>666</v>
+        <v>421</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="inlineStr">
         <is>
-          <t>To [Reynolds]' Lab[END]</t>
+          <t>To the Basement..[END]</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>23284</v>
+        <v>22180</v>
       </c>
       <c r="C519" t="n">
-        <v>421</v>
+        <v>145</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="inlineStr">
         <is>
-          <t>To the Basement..[END]</t>
+          <t>To the Cathedral[END]</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>22180</v>
+        <v>24232</v>
       </c>
       <c r="C520" t="n">
-        <v>145</v>
+        <v>658</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="inlineStr">
         <is>
-          <t>To the Cathedral[END]</t>
+          <t>To the Depths[END]</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>24232</v>
+        <v>24412</v>
       </c>
       <c r="C521" t="n">
-        <v>658</v>
+        <v>703</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="inlineStr">
         <is>
-          <t>To the Depths[END]</t>
+          <t>To the Front Door[END]</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>24412</v>
+        <v>24296</v>
       </c>
       <c r="C522" t="n">
-        <v>703</v>
+        <v>674</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="inlineStr">
         <is>
-          <t>To the Front Door[END]</t>
+          <t>To the Harbor[END]</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>24296</v>
+        <v>22436</v>
       </c>
       <c r="C523" t="n">
-        <v>674</v>
+        <v>209</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="inlineStr">
         <is>
-          <t>To the Harbor[END]</t>
+          <t>To the Inn for Now[END]</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>22436</v>
+        <v>24272</v>
       </c>
       <c r="C524" t="n">
-        <v>209</v>
+        <v>668</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="inlineStr">
         <is>
-          <t>To the Inn for Now[END]</t>
+          <t>To the King at Seinegald Castle[END]</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>24272</v>
+        <v>24208</v>
       </c>
       <c r="C525" t="n">
-        <v>668</v>
+        <v>652</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="inlineStr">
         <is>
-          <t>To the King at Seinegald Castle[END]</t>
+          <t>To the Lens Cannon[END]</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>24208</v>
+        <v>23480</v>
       </c>
       <c r="C526" t="n">
-        <v>652</v>
+        <v>470</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="inlineStr">
         <is>
-          <t>To the Lens Cannon[END]</t>
+          <t>To the Leviathan[END]</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>23480</v>
+        <v>23568</v>
       </c>
       <c r="C527" t="n">
-        <v>470</v>
+        <v>492</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="inlineStr">
         <is>
-          <t>To the Leviathan[END]</t>
+          <t>To the North from Cyril[END]</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>23568</v>
+        <v>22668</v>
       </c>
       <c r="C528" t="n">
-        <v>492</v>
+        <v>267</v>
       </c>
     </row>
     <row r="529">

--- a/patch/SLPS/scripts/googleSheet_Extracted2.xlsx
+++ b/patch/SLPS/scripts/googleSheet_Extracted2.xlsx
@@ -4756,27 +4756,27 @@
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
         <is>
-          <t>Neuestadt is Southeast of Lienea[END]</t>
+          <t>Neustadt Sure is Lively[END]</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>22744</v>
+        <v>22220</v>
       </c>
       <c r="C333" t="n">
-        <v>286</v>
+        <v>155</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="inlineStr">
         <is>
-          <t>Neustadt Sure is Lively[END]</t>
+          <t>Neustadt is Southeast of Lienea[END]</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>22220</v>
+        <v>22744</v>
       </c>
       <c r="C334" t="n">
-        <v>155</v>
+        <v>286</v>
       </c>
     </row>
     <row r="335">
@@ -5614,7 +5614,7 @@
     <row r="399">
       <c r="A399" s="1" t="inlineStr">
         <is>
-          <t>Seeking Lens in Neuestadt[END]</t>
+          <t>Seeking Lens in Neustadt[END]</t>
         </is>
       </c>
       <c r="B399" t="n">
@@ -5783,7 +5783,7 @@
     <row r="412">
       <c r="A412" s="1" t="inlineStr">
         <is>
-          <t>Southeast from Lienea is Neuestadt[END]</t>
+          <t>Southeast from Lienea is Neustadt[END]</t>
         </is>
       </c>
       <c r="B412" t="n">

--- a/patch/SLPS/scripts/googleSheet_Extracted2.xlsx
+++ b/patch/SLPS/scripts/googleSheet_Extracted2.xlsx
@@ -6862,79 +6862,79 @@
     <row r="495">
       <c r="A495" s="1" t="inlineStr">
         <is>
-          <t>Though the Passage to the Castle[END]</t>
+          <t>Thoughts on the Aetherians?[END]</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>22692</v>
+        <v>23112</v>
       </c>
       <c r="C495" t="n">
-        <v>273</v>
+        <v>378</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="inlineStr">
         <is>
-          <t>Thoughts on the Aetherians?[END]</t>
+          <t>Through Rodeon to Helraios[END]</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>23112</v>
+        <v>23144</v>
       </c>
       <c r="C496" t="n">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="inlineStr">
         <is>
-          <t>Through Rodeon to Helraios[END]</t>
+          <t>Through Tilso Forest to Heidelberg[END]</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>23144</v>
+        <v>22616</v>
       </c>
       <c r="C497" t="n">
-        <v>386</v>
+        <v>254</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="inlineStr">
         <is>
-          <t>Through Tilso Forest to Heidelberg[END]</t>
+          <t>Through the Forest to Cyril[END]</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>22616</v>
+        <v>22640</v>
       </c>
       <c r="C498" t="n">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="inlineStr">
         <is>
-          <t>Through the Forest to Cyril[END]</t>
+          <t>Through the Forest to Straylize Temple[END]</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>22640</v>
+        <v>21976</v>
       </c>
       <c r="C499" t="n">
-        <v>260</v>
+        <v>94</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="inlineStr">
         <is>
-          <t>Through the Forest to Straylize Temple[END]</t>
+          <t>Through the Passage to the Castle[END]</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>21976</v>
+        <v>22692</v>
       </c>
       <c r="C500" t="n">
-        <v>94</v>
+        <v>273</v>
       </c>
     </row>
     <row r="501">

--- a/patch/SLPS/scripts/googleSheet_Extracted2.xlsx
+++ b/patch/SLPS/scripts/googleSheet_Extracted2.xlsx
@@ -3417,7 +3417,7 @@
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>Kind Master [lion] Isn't![END]</t>
+          <t>Kind Master [Lion] Isn't![END]</t>
         </is>
       </c>
       <c r="B230" t="n">

--- a/patch/SLPS/scripts/googleSheet_Extracted2.xlsx
+++ b/patch/SLPS/scripts/googleSheet_Extracted2.xlsx
@@ -6446,7 +6446,7 @@
     <row r="463">
       <c r="A463" s="1" t="inlineStr">
         <is>
-          <t>The Lab Right in Front of Darilsheid[END]</t>
+          <t>The Lab is Near Darilsheid[END]</t>
         </is>
       </c>
       <c r="B463" t="n">

--- a/patch/SLPS/scripts/googleSheet_Extracted2.xlsx
+++ b/patch/SLPS/scripts/googleSheet_Extracted2.xlsx
@@ -4496,7 +4496,7 @@
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
         <is>
-          <t>Let's return to Radirol[END]</t>
+          <t>Let's return to Radisrol[END]</t>
         </is>
       </c>
       <c r="B313" t="n">

--- a/patch/SLPS/scripts/googleSheet_Extracted2.xlsx
+++ b/patch/SLPS/scripts/googleSheet_Extracted2.xlsx
@@ -2130,7 +2130,7 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>From Armedia to the Temple[END]</t>
+          <t>From Armeida to the Temple[END]</t>
         </is>
       </c>
       <c r="B131" t="n">

--- a/patch/SLPS/scripts/googleSheet_Extracted2.xlsx
+++ b/patch/SLPS/scripts/googleSheet_Extracted2.xlsx
@@ -3365,7 +3365,7 @@
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>Janos Is Southwest of [Alba’s] Hut[END]</t>
+          <t>Janos Is Southwest of [Alba]'s Hut[END]</t>
         </is>
       </c>
       <c r="B226" t="n">
